--- a/data/scraped_processed/ntu_igp_raw.xlsx
+++ b/data/scraped_processed/ntu_igp_raw.xlsx
@@ -6,18 +6,20 @@
     <sheet state="visible" name="ntu_igp_raw" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="notes" sheetId="2" r:id="rId5"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">ntu_igp_raw!$A$1:$T$130</definedName>
+  </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="e/YPxANJ1X5LNAxBiFzCCN8Ovlm2aq7GP47qP2CsDjM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="XPgOKcACvNC8mfU2rWr1S6bckpjE06w1gudaoBxZ65Y="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="134">
   <si>
     <t>Faculty</t>
   </si>
@@ -223,9 +225,6 @@
     <t>Mechanical Engineering</t>
   </si>
   <si>
-    <t>College of Computing and Data Science (wef Feb 2024)</t>
-  </si>
-  <si>
     <t>Computer Engineering</t>
   </si>
   <si>
@@ -292,7 +291,7 @@
     <t>Business</t>
   </si>
   <si>
-    <t>College of Humanities, Arts, &amp; Social Sciences</t>
+    <t>College of Humanities, Arts and Social Sciences</t>
   </si>
   <si>
     <t>SOH Double Major Programmes*</t>
@@ -373,7 +372,7 @@
     <t>Sociology</t>
   </si>
   <si>
-    <t>National Institute of Education</t>
+    <t>National Institute of Education (NIE)</t>
   </si>
   <si>
     <t>Arts (Education)*</t>
@@ -536,12 +535,113 @@
       <t>discontnued from AY 18/19 onwards. Need to decide to exclude or not</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Computer Science</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Computer Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Data Science &amp; Artificial Intelligence</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> were parked under </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>College of Computing &amp; Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> (WEF 2024) but moved them to </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>College of Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> to align with GES table</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Minor changes to </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Faculty</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> names to align with GES mapping table</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -556,6 +656,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -578,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -595,6 +700,10 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -815,9 +924,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.63"/>
+    <col customWidth="1" min="1" max="1" width="42.25"/>
     <col customWidth="1" min="2" max="3" width="27.0"/>
-    <col customWidth="1" min="4" max="8" width="12.63"/>
+    <col customWidth="1" min="4" max="7" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -833,55 +942,55 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -889,7 +998,6 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -904,7 +1012,9 @@
       <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
@@ -933,9 +1043,6 @@
         <v>24</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -952,7 +1059,9 @@
       <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
@@ -981,9 +1090,6 @@
         <v>26</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1000,38 +1106,37 @@
       <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3">
+        <v>150.0</v>
+      </c>
       <c r="F4" s="3">
-        <v>150.0</v>
+        <v>167.0</v>
       </c>
       <c r="G4" s="3">
-        <v>167.0</v>
+        <v>168.0</v>
       </c>
       <c r="H4" s="3">
-        <v>168.0</v>
+        <v>162.0</v>
       </c>
       <c r="I4" s="3">
-        <v>162.0</v>
+        <v>149.0</v>
       </c>
       <c r="J4" s="3">
-        <v>149.0</v>
+        <v>138.0</v>
       </c>
       <c r="K4" s="3">
-        <v>138.0</v>
+        <v>120.0</v>
       </c>
       <c r="L4" s="3">
-        <v>120.0</v>
+        <v>108.0</v>
       </c>
       <c r="M4" s="3">
-        <v>108.0</v>
+        <v>90.0</v>
       </c>
       <c r="N4" s="3">
-        <v>90.0</v>
+        <v>78.0</v>
       </c>
       <c r="O4" s="3">
-        <v>78.0</v>
-      </c>
-      <c r="P4" s="3">
         <v>54.0</v>
       </c>
     </row>
@@ -1048,7 +1153,9 @@
       <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1079,13 +1186,10 @@
       <c r="O5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R5" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1102,7 +1206,9 @@
       <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1133,13 +1239,10 @@
       <c r="O6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1156,44 +1259,43 @@
       <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>54.0</v>
+      </c>
       <c r="F7" s="3">
-        <v>54.0</v>
+        <v>40.0</v>
       </c>
       <c r="G7" s="3">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
       <c r="H7" s="3">
-        <v>37.0</v>
+        <v>51.0</v>
       </c>
       <c r="I7" s="3">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="J7" s="3">
         <v>55.0</v>
       </c>
       <c r="K7" s="3">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="L7" s="3">
-        <v>60.0</v>
+        <v>68.0</v>
       </c>
       <c r="M7" s="3">
-        <v>68.0</v>
+        <v>58.0</v>
       </c>
       <c r="N7" s="3">
-        <v>58.0</v>
+        <v>56.0</v>
       </c>
       <c r="O7" s="3">
+        <v>42.0</v>
+      </c>
+      <c r="P7" s="5">
         <v>56.0</v>
       </c>
-      <c r="P7" s="3">
-        <v>42.0</v>
-      </c>
       <c r="Q7" s="5">
-        <v>56.0</v>
-      </c>
-      <c r="R7" s="5">
         <v>36.0</v>
       </c>
     </row>
@@ -1210,27 +1312,29 @@
       <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="F8" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>36</v>
@@ -1239,10 +1343,10 @@
         <v>36</v>
       </c>
       <c r="O8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>36</v>
@@ -1254,9 +1358,6 @@
         <v>36</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1273,40 +1374,42 @@
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>3.69</v>
+      </c>
       <c r="F9" s="3">
-        <v>3.69</v>
+        <v>3.55</v>
       </c>
       <c r="G9" s="3">
-        <v>3.55</v>
+        <v>3.82</v>
       </c>
       <c r="H9" s="3">
-        <v>3.82</v>
+        <v>3.8</v>
       </c>
       <c r="I9" s="3">
-        <v>3.8</v>
+        <v>3.49</v>
       </c>
       <c r="J9" s="3">
-        <v>3.49</v>
+        <v>3.83</v>
       </c>
       <c r="K9" s="3">
-        <v>3.83</v>
+        <v>3.88</v>
       </c>
       <c r="L9" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="M9" s="3">
         <v>3.88</v>
       </c>
-      <c r="M9" s="3">
-        <v>3.74</v>
-      </c>
       <c r="N9" s="3">
-        <v>3.88</v>
+        <v>3.81</v>
       </c>
       <c r="O9" s="3">
-        <v>3.81</v>
-      </c>
-      <c r="P9" s="3">
         <v>3.85</v>
       </c>
+      <c r="P9" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="Q9" s="5" t="s">
         <v>26</v>
       </c>
@@ -1317,9 +1420,6 @@
         <v>26</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="U9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1336,53 +1436,52 @@
       <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>135.0</v>
+      </c>
       <c r="F10" s="3">
-        <v>135.0</v>
+        <v>131.0</v>
       </c>
       <c r="G10" s="3">
-        <v>131.0</v>
+        <v>168.0</v>
       </c>
       <c r="H10" s="3">
-        <v>168.0</v>
+        <v>144.0</v>
       </c>
       <c r="I10" s="3">
-        <v>144.0</v>
+        <v>124.0</v>
       </c>
       <c r="J10" s="3">
-        <v>124.0</v>
+        <v>142.0</v>
       </c>
       <c r="K10" s="3">
-        <v>142.0</v>
+        <v>102.0</v>
       </c>
       <c r="L10" s="3">
+        <v>130.0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>136.0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>132.0</v>
+      </c>
+      <c r="O10" s="3">
         <v>102.0</v>
       </c>
-      <c r="M10" s="3">
-        <v>130.0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>136.0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>132.0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>102.0</v>
+      <c r="P10" s="5">
+        <v>97.0</v>
       </c>
       <c r="Q10" s="5">
-        <v>97.0</v>
+        <v>69.0</v>
       </c>
       <c r="R10" s="5">
-        <v>69.0</v>
+        <v>88.0</v>
       </c>
       <c r="S10" s="5">
-        <v>88.0</v>
+        <v>96.0</v>
       </c>
       <c r="T10" s="5">
-        <v>96.0</v>
-      </c>
-      <c r="U10" s="5">
         <v>87.0</v>
       </c>
     </row>
@@ -1399,24 +1498,26 @@
       <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F11" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>43</v>
@@ -1425,27 +1526,24 @@
         <v>43</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="P11" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="Q11" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S11" s="5" t="s">
         <v>46</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="U11" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1462,53 +1560,52 @@
       <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>3.52</v>
+      </c>
       <c r="F12" s="3">
-        <v>3.52</v>
+        <v>3.57</v>
       </c>
       <c r="G12" s="3">
-        <v>3.57</v>
+        <v>3.53</v>
       </c>
       <c r="H12" s="3">
-        <v>3.53</v>
+        <v>3.63</v>
       </c>
       <c r="I12" s="3">
-        <v>3.63</v>
+        <v>3.69</v>
       </c>
       <c r="J12" s="3">
-        <v>3.69</v>
+        <v>3.55</v>
       </c>
       <c r="K12" s="3">
-        <v>3.55</v>
+        <v>3.47</v>
       </c>
       <c r="L12" s="3">
-        <v>3.47</v>
+        <v>3.45</v>
       </c>
       <c r="M12" s="3">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="N12" s="3">
-        <v>3.42</v>
+        <v>3.61</v>
       </c>
       <c r="O12" s="3">
-        <v>3.61</v>
-      </c>
-      <c r="P12" s="3">
         <v>3.34</v>
       </c>
+      <c r="P12" s="5">
+        <v>3.44</v>
+      </c>
       <c r="Q12" s="5">
-        <v>3.44</v>
+        <v>3.46</v>
       </c>
       <c r="R12" s="5">
-        <v>3.46</v>
+        <v>3.48</v>
       </c>
       <c r="S12" s="5">
-        <v>3.48</v>
+        <v>3.3</v>
       </c>
       <c r="T12" s="5">
-        <v>3.3</v>
-      </c>
-      <c r="U12" s="5">
         <v>3.5</v>
       </c>
     </row>
@@ -1525,53 +1622,52 @@
       <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>138.0</v>
+      </c>
       <c r="F13" s="3">
-        <v>138.0</v>
+        <v>85.0</v>
       </c>
       <c r="G13" s="3">
-        <v>85.0</v>
+        <v>95.0</v>
       </c>
       <c r="H13" s="3">
-        <v>95.0</v>
+        <v>111.0</v>
       </c>
       <c r="I13" s="3">
-        <v>111.0</v>
+        <v>102.0</v>
       </c>
       <c r="J13" s="3">
-        <v>102.0</v>
+        <v>112.0</v>
       </c>
       <c r="K13" s="3">
-        <v>112.0</v>
+        <v>94.0</v>
       </c>
       <c r="L13" s="3">
-        <v>94.0</v>
+        <v>78.0</v>
       </c>
       <c r="M13" s="3">
-        <v>78.0</v>
+        <v>88.0</v>
       </c>
       <c r="N13" s="3">
         <v>88.0</v>
       </c>
       <c r="O13" s="3">
-        <v>88.0</v>
-      </c>
-      <c r="P13" s="3">
         <v>86.0</v>
       </c>
+      <c r="P13" s="5">
+        <v>107.0</v>
+      </c>
       <c r="Q13" s="5">
-        <v>107.0</v>
+        <v>108.0</v>
       </c>
       <c r="R13" s="5">
-        <v>108.0</v>
+        <v>138.0</v>
       </c>
       <c r="S13" s="5">
-        <v>138.0</v>
+        <v>112.0</v>
       </c>
       <c r="T13" s="5">
-        <v>112.0</v>
-      </c>
-      <c r="U13" s="5">
         <v>68.0</v>
       </c>
     </row>
@@ -1588,53 +1684,52 @@
       <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="F14" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="5" t="s">
         <v>37</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>37</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U14" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1651,53 +1746,52 @@
       <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>3.47</v>
+      </c>
       <c r="F15" s="3">
-        <v>3.47</v>
+        <v>3.71</v>
       </c>
       <c r="G15" s="3">
-        <v>3.71</v>
+        <v>3.48</v>
       </c>
       <c r="H15" s="3">
+        <v>3.61</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3.67</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3.81</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3.69</v>
+      </c>
+      <c r="L15" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="M15" s="3">
+        <v>3.64</v>
+      </c>
+      <c r="N15" s="3">
+        <v>3.81</v>
+      </c>
+      <c r="O15" s="3">
         <v>3.48</v>
       </c>
-      <c r="I15" s="3">
-        <v>3.61</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="P15" s="5">
+        <v>3.57</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>3.68</v>
+      </c>
+      <c r="R15" s="5">
         <v>3.67</v>
-      </c>
-      <c r="K15" s="3">
-        <v>3.81</v>
-      </c>
-      <c r="L15" s="3">
-        <v>3.69</v>
-      </c>
-      <c r="M15" s="3">
-        <v>3.85</v>
-      </c>
-      <c r="N15" s="3">
-        <v>3.64</v>
-      </c>
-      <c r="O15" s="3">
-        <v>3.81</v>
-      </c>
-      <c r="P15" s="3">
-        <v>3.48</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>3.57</v>
-      </c>
-      <c r="R15" s="5">
-        <v>3.68</v>
       </c>
       <c r="S15" s="5">
         <v>3.67</v>
       </c>
       <c r="T15" s="5">
-        <v>3.67</v>
-      </c>
-      <c r="U15" s="5">
         <v>3.81</v>
       </c>
     </row>
@@ -1714,53 +1808,52 @@
       <c r="D16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>150.0</v>
+      </c>
       <c r="F16" s="3">
-        <v>150.0</v>
+        <v>162.0</v>
       </c>
       <c r="G16" s="3">
-        <v>162.0</v>
+        <v>193.0</v>
       </c>
       <c r="H16" s="3">
-        <v>193.0</v>
+        <v>173.0</v>
       </c>
       <c r="I16" s="3">
-        <v>173.0</v>
+        <v>174.0</v>
       </c>
       <c r="J16" s="3">
-        <v>174.0</v>
+        <v>155.0</v>
       </c>
       <c r="K16" s="3">
-        <v>155.0</v>
+        <v>143.0</v>
       </c>
       <c r="L16" s="3">
         <v>143.0</v>
       </c>
       <c r="M16" s="3">
-        <v>143.0</v>
+        <v>190.0</v>
       </c>
       <c r="N16" s="3">
-        <v>190.0</v>
+        <v>201.0</v>
       </c>
       <c r="O16" s="3">
-        <v>201.0</v>
-      </c>
-      <c r="P16" s="3">
         <v>224.0</v>
       </c>
+      <c r="P16" s="5">
+        <v>159.0</v>
+      </c>
       <c r="Q16" s="5">
-        <v>159.0</v>
+        <v>160.0</v>
       </c>
       <c r="R16" s="5">
-        <v>160.0</v>
+        <v>170.0</v>
       </c>
       <c r="S16" s="5">
-        <v>170.0</v>
+        <v>203.0</v>
       </c>
       <c r="T16" s="5">
-        <v>203.0</v>
-      </c>
-      <c r="U16" s="5">
         <v>162.0</v>
       </c>
     </row>
@@ -1777,7 +1870,9 @@
       <c r="D17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="F17" s="3" t="s">
         <v>51</v>
       </c>
@@ -1785,45 +1880,42 @@
         <v>51</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="O17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="Q17" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R17" s="5" t="s">
         <v>42</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="U17" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1840,53 +1932,52 @@
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>3.43</v>
+      </c>
       <c r="F18" s="3">
-        <v>3.43</v>
+        <v>3.49</v>
       </c>
       <c r="G18" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3.44</v>
+      </c>
+      <c r="J18" s="3">
         <v>3.49</v>
       </c>
-      <c r="H18" s="3">
-        <v>3.45</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
+        <v>3.71</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3.73</v>
+      </c>
+      <c r="M18" s="3">
+        <v>3.55</v>
+      </c>
+      <c r="N18" s="3">
         <v>3.5</v>
       </c>
-      <c r="J18" s="3">
-        <v>3.44</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>3.49</v>
       </c>
-      <c r="L18" s="3">
-        <v>3.71</v>
-      </c>
-      <c r="M18" s="3">
-        <v>3.73</v>
-      </c>
-      <c r="N18" s="3">
-        <v>3.55</v>
-      </c>
-      <c r="O18" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="P18" s="3">
-        <v>3.49</v>
+      <c r="P18" s="5">
+        <v>3.54</v>
       </c>
       <c r="Q18" s="5">
         <v>3.54</v>
       </c>
       <c r="R18" s="5">
-        <v>3.54</v>
+        <v>3.44</v>
       </c>
       <c r="S18" s="5">
-        <v>3.44</v>
-      </c>
-      <c r="T18" s="5">
         <v>3.34</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="T18" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1903,53 +1994,52 @@
       <c r="D19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>139.0</v>
+      </c>
       <c r="F19" s="3">
-        <v>139.0</v>
+        <v>130.0</v>
       </c>
       <c r="G19" s="3">
         <v>130.0</v>
       </c>
       <c r="H19" s="3">
+        <v>144.0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>120.0</v>
+      </c>
+      <c r="J19" s="3">
         <v>130.0</v>
       </c>
-      <c r="I19" s="3">
-        <v>144.0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>120.0</v>
-      </c>
       <c r="K19" s="3">
-        <v>130.0</v>
+        <v>125.0</v>
       </c>
       <c r="L19" s="3">
-        <v>125.0</v>
+        <v>136.0</v>
       </c>
       <c r="M19" s="3">
-        <v>136.0</v>
+        <v>147.0</v>
       </c>
       <c r="N19" s="3">
-        <v>147.0</v>
+        <v>154.0</v>
       </c>
       <c r="O19" s="3">
-        <v>154.0</v>
-      </c>
-      <c r="P19" s="3">
         <v>153.0</v>
       </c>
+      <c r="P19" s="5">
+        <v>134.0</v>
+      </c>
       <c r="Q19" s="5">
-        <v>134.0</v>
+        <v>132.0</v>
       </c>
       <c r="R19" s="5">
-        <v>132.0</v>
+        <v>143.0</v>
       </c>
       <c r="S19" s="5">
-        <v>143.0</v>
+        <v>112.0</v>
       </c>
       <c r="T19" s="5">
-        <v>112.0</v>
-      </c>
-      <c r="U19" s="5">
         <v>106.0</v>
       </c>
     </row>
@@ -1966,30 +2056,32 @@
       <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="F20" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>55</v>
@@ -1997,22 +2089,19 @@
       <c r="O20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>55</v>
+      <c r="P20" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="R20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S20" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="T20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="U20" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2029,53 +2118,52 @@
       <c r="D21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>3.44</v>
+      </c>
       <c r="F21" s="3">
         <v>3.44</v>
       </c>
       <c r="G21" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3.43</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3.49</v>
+      </c>
+      <c r="K21" s="3">
+        <v>3.56</v>
+      </c>
+      <c r="L21" s="3">
+        <v>3.47</v>
+      </c>
+      <c r="M21" s="3">
         <v>3.44</v>
-      </c>
-      <c r="H21" s="3">
-        <v>3.45</v>
-      </c>
-      <c r="I21" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="J21" s="3">
-        <v>3.43</v>
-      </c>
-      <c r="K21" s="3">
-        <v>3.49</v>
-      </c>
-      <c r="L21" s="3">
-        <v>3.56</v>
-      </c>
-      <c r="M21" s="3">
-        <v>3.47</v>
       </c>
       <c r="N21" s="3">
         <v>3.44</v>
       </c>
       <c r="O21" s="3">
-        <v>3.44</v>
-      </c>
-      <c r="P21" s="3">
         <v>3.37</v>
       </c>
+      <c r="P21" s="5">
+        <v>3.47</v>
+      </c>
       <c r="Q21" s="5">
-        <v>3.47</v>
+        <v>3.51</v>
       </c>
       <c r="R21" s="5">
-        <v>3.51</v>
+        <v>3.57</v>
       </c>
       <c r="S21" s="5">
-        <v>3.57</v>
+        <v>3.39</v>
       </c>
       <c r="T21" s="5">
-        <v>3.39</v>
-      </c>
-      <c r="U21" s="5">
         <v>3.35</v>
       </c>
     </row>
@@ -2092,53 +2180,52 @@
       <c r="D22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>652.0</v>
+      </c>
       <c r="F22" s="3">
-        <v>652.0</v>
+        <v>620.0</v>
       </c>
       <c r="G22" s="3">
-        <v>620.0</v>
+        <v>647.0</v>
       </c>
       <c r="H22" s="3">
-        <v>647.0</v>
+        <v>648.0</v>
       </c>
       <c r="I22" s="3">
-        <v>648.0</v>
+        <v>608.0</v>
       </c>
       <c r="J22" s="3">
+        <v>570.0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>525.0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>597.0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>644.0</v>
+      </c>
+      <c r="N22" s="3">
         <v>608.0</v>
       </c>
-      <c r="K22" s="3">
-        <v>570.0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>525.0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>597.0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>644.0</v>
-      </c>
       <c r="O22" s="3">
-        <v>608.0</v>
-      </c>
-      <c r="P22" s="3">
         <v>624.0</v>
       </c>
+      <c r="P22" s="5">
+        <v>606.0</v>
+      </c>
       <c r="Q22" s="5">
-        <v>606.0</v>
+        <v>631.0</v>
       </c>
       <c r="R22" s="5">
-        <v>631.0</v>
+        <v>672.0</v>
       </c>
       <c r="S22" s="5">
-        <v>672.0</v>
+        <v>721.0</v>
       </c>
       <c r="T22" s="5">
-        <v>721.0</v>
-      </c>
-      <c r="U22" s="5">
         <v>689.0</v>
       </c>
     </row>
@@ -2155,53 +2242,52 @@
       <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="F23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="J23" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>39</v>
       </c>
       <c r="L23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>39</v>
       </c>
       <c r="O23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="Q23" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S23" s="5" t="s">
         <v>42</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U23" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2218,7 +2304,9 @@
       <c r="D24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F24" s="3" t="s">
         <v>26</v>
       </c>
@@ -2249,7 +2337,7 @@
       <c r="O24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="P24" s="5" t="s">
         <v>26</v>
       </c>
       <c r="Q24" s="5" t="s">
@@ -2262,9 +2350,6 @@
         <v>26</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="U24" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2281,53 +2366,52 @@
       <c r="D25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3">
+        <v>70.0</v>
+      </c>
       <c r="F25" s="3">
-        <v>70.0</v>
+        <v>45.0</v>
       </c>
       <c r="G25" s="3">
-        <v>45.0</v>
+        <v>53.0</v>
       </c>
       <c r="H25" s="3">
-        <v>53.0</v>
+        <v>43.0</v>
       </c>
       <c r="I25" s="3">
-        <v>43.0</v>
+        <v>33.0</v>
       </c>
       <c r="J25" s="3">
-        <v>33.0</v>
+        <v>37.0</v>
       </c>
       <c r="K25" s="3">
-        <v>37.0</v>
+        <v>42.0</v>
       </c>
       <c r="L25" s="3">
-        <v>42.0</v>
+        <v>55.0</v>
       </c>
       <c r="M25" s="3">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="N25" s="3">
-        <v>57.0</v>
+        <v>77.0</v>
       </c>
       <c r="O25" s="3">
-        <v>77.0</v>
-      </c>
-      <c r="P25" s="3">
         <v>82.0</v>
       </c>
+      <c r="P25" s="5">
+        <v>66.0</v>
+      </c>
       <c r="Q25" s="5">
-        <v>66.0</v>
+        <v>78.0</v>
       </c>
       <c r="R25" s="5">
-        <v>78.0</v>
+        <v>108.0</v>
       </c>
       <c r="S25" s="5">
-        <v>108.0</v>
+        <v>139.0</v>
       </c>
       <c r="T25" s="5">
-        <v>139.0</v>
-      </c>
-      <c r="U25" s="5">
         <v>137.0</v>
       </c>
     </row>
@@ -2344,7 +2428,9 @@
       <c r="D26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F26" s="3" t="s">
         <v>39</v>
       </c>
@@ -2352,16 +2438,16 @@
         <v>39</v>
       </c>
       <c r="H26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="J26" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>43</v>
@@ -2373,24 +2459,21 @@
         <v>43</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P26" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="P26" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="Q26" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="U26" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2407,53 +2490,52 @@
       <c r="D27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3">
+        <v>3.5</v>
+      </c>
       <c r="F27" s="3">
+        <v>3.56</v>
+      </c>
+      <c r="G27" s="3">
         <v>3.5</v>
       </c>
-      <c r="G27" s="3">
-        <v>3.56</v>
-      </c>
       <c r="H27" s="3">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="I27" s="3">
         <v>3.46</v>
       </c>
       <c r="J27" s="3">
-        <v>3.46</v>
+        <v>3.51</v>
       </c>
       <c r="K27" s="3">
-        <v>3.51</v>
+        <v>3.63</v>
       </c>
       <c r="L27" s="3">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
       <c r="M27" s="3">
-        <v>3.64</v>
+        <v>3.7</v>
       </c>
       <c r="N27" s="3">
-        <v>3.7</v>
+        <v>3.74</v>
       </c>
       <c r="O27" s="3">
-        <v>3.74</v>
-      </c>
-      <c r="P27" s="3">
         <v>3.5</v>
       </c>
+      <c r="P27" s="5">
+        <v>3.66</v>
+      </c>
       <c r="Q27" s="5">
-        <v>3.66</v>
+        <v>3.61</v>
       </c>
       <c r="R27" s="5">
-        <v>3.61</v>
+        <v>3.57</v>
       </c>
       <c r="S27" s="5">
-        <v>3.57</v>
+        <v>3.22</v>
       </c>
       <c r="T27" s="5">
-        <v>3.22</v>
-      </c>
-      <c r="U27" s="5">
         <v>3.29</v>
       </c>
     </row>
@@ -2470,53 +2552,52 @@
       <c r="D28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3">
+        <v>54.0</v>
+      </c>
       <c r="F28" s="3">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
       <c r="G28" s="3">
+        <v>57.0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>58.0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>35.0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>49.0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>48.0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>46.0</v>
+      </c>
+      <c r="M28" s="3">
         <v>51.0</v>
       </c>
-      <c r="H28" s="3">
-        <v>57.0</v>
-      </c>
-      <c r="I28" s="3">
+      <c r="N28" s="3">
+        <v>53.0</v>
+      </c>
+      <c r="O28" s="3">
         <v>58.0</v>
       </c>
-      <c r="J28" s="3">
-        <v>35.0</v>
-      </c>
-      <c r="K28" s="3">
-        <v>49.0</v>
-      </c>
-      <c r="L28" s="3">
-        <v>48.0</v>
-      </c>
-      <c r="M28" s="3">
-        <v>46.0</v>
-      </c>
-      <c r="N28" s="3">
-        <v>51.0</v>
-      </c>
-      <c r="O28" s="3">
-        <v>53.0</v>
-      </c>
-      <c r="P28" s="3">
-        <v>58.0</v>
+      <c r="P28" s="5">
+        <v>45.0</v>
       </c>
       <c r="Q28" s="5">
-        <v>45.0</v>
+        <v>76.0</v>
       </c>
       <c r="R28" s="5">
         <v>76.0</v>
       </c>
       <c r="S28" s="5">
-        <v>76.0</v>
+        <v>135.0</v>
       </c>
       <c r="T28" s="5">
-        <v>135.0</v>
-      </c>
-      <c r="U28" s="5">
         <v>78.0</v>
       </c>
     </row>
@@ -2533,18 +2614,20 @@
       <c r="D29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="I29" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>45</v>
@@ -2553,33 +2636,30 @@
         <v>45</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>39</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="P29" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="Q29" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R29" s="5" t="s">
         <v>45</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="U29" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2596,53 +2676,52 @@
       <c r="D30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3">
+        <v>3.62</v>
+      </c>
       <c r="F30" s="3">
-        <v>3.62</v>
+        <v>3.66</v>
       </c>
       <c r="G30" s="3">
         <v>3.66</v>
       </c>
       <c r="H30" s="3">
-        <v>3.66</v>
+        <v>3.55</v>
       </c>
       <c r="I30" s="3">
+        <v>3.49</v>
+      </c>
+      <c r="J30" s="3">
+        <v>3.63</v>
+      </c>
+      <c r="K30" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="L30" s="3">
+        <v>3.48</v>
+      </c>
+      <c r="M30" s="3">
+        <v>3.53</v>
+      </c>
+      <c r="N30" s="3">
+        <v>3.48</v>
+      </c>
+      <c r="O30" s="3">
+        <v>3.52</v>
+      </c>
+      <c r="P30" s="5">
         <v>3.55</v>
       </c>
-      <c r="J30" s="3">
-        <v>3.49</v>
-      </c>
-      <c r="K30" s="3">
-        <v>3.63</v>
-      </c>
-      <c r="L30" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="M30" s="3">
-        <v>3.48</v>
-      </c>
-      <c r="N30" s="3">
-        <v>3.53</v>
-      </c>
-      <c r="O30" s="3">
-        <v>3.48</v>
-      </c>
-      <c r="P30" s="3">
-        <v>3.52</v>
-      </c>
       <c r="Q30" s="5">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="R30" s="5">
-        <v>3.58</v>
+        <v>3.6</v>
       </c>
       <c r="S30" s="5">
-        <v>3.6</v>
+        <v>3.64</v>
       </c>
       <c r="T30" s="5">
-        <v>3.64</v>
-      </c>
-      <c r="U30" s="5">
         <v>3.56</v>
       </c>
     </row>
@@ -2659,53 +2738,52 @@
       <c r="D31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3">
+        <v>99.0</v>
+      </c>
       <c r="F31" s="3">
-        <v>99.0</v>
+        <v>105.0</v>
       </c>
       <c r="G31" s="3">
-        <v>105.0</v>
+        <v>91.0</v>
       </c>
       <c r="H31" s="3">
-        <v>91.0</v>
+        <v>97.0</v>
       </c>
       <c r="I31" s="3">
         <v>97.0</v>
       </c>
       <c r="J31" s="3">
-        <v>97.0</v>
+        <v>81.0</v>
       </c>
       <c r="K31" s="3">
-        <v>81.0</v>
+        <v>90.0</v>
       </c>
       <c r="L31" s="3">
+        <v>96.0</v>
+      </c>
+      <c r="M31" s="3">
         <v>90.0</v>
       </c>
-      <c r="M31" s="3">
-        <v>96.0</v>
-      </c>
       <c r="N31" s="3">
+        <v>112.0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>77.0</v>
+      </c>
+      <c r="P31" s="5">
+        <v>80.0</v>
+      </c>
+      <c r="Q31" s="5">
         <v>90.0</v>
       </c>
-      <c r="O31" s="3">
-        <v>112.0</v>
-      </c>
-      <c r="P31" s="3">
-        <v>77.0</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>80.0</v>
-      </c>
       <c r="R31" s="5">
-        <v>90.0</v>
+        <v>74.0</v>
       </c>
       <c r="S31" s="5">
-        <v>74.0</v>
+        <v>70.0</v>
       </c>
       <c r="T31" s="5">
-        <v>70.0</v>
-      </c>
-      <c r="U31" s="5">
         <v>61.0</v>
       </c>
     </row>
@@ -2722,7 +2800,9 @@
       <c r="D32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F32" s="3" t="s">
         <v>39</v>
       </c>
@@ -2730,45 +2810,42 @@
         <v>39</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>63</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P32" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="P32" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="Q32" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U32" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2785,9 +2862,11 @@
       <c r="D33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3">
+        <v>3.51</v>
+      </c>
       <c r="F33" s="3">
-        <v>3.51</v>
+        <v>3.5</v>
       </c>
       <c r="G33" s="3">
         <v>3.5</v>
@@ -2796,42 +2875,39 @@
         <v>3.5</v>
       </c>
       <c r="I33" s="3">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
       <c r="J33" s="3">
-        <v>3.54</v>
+        <v>3.69</v>
       </c>
       <c r="K33" s="3">
+        <v>3.68</v>
+      </c>
+      <c r="L33" s="3">
+        <v>3.78</v>
+      </c>
+      <c r="M33" s="3">
         <v>3.69</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3.68</v>
       </c>
-      <c r="M33" s="3">
-        <v>3.78</v>
-      </c>
-      <c r="N33" s="3">
-        <v>3.69</v>
-      </c>
       <c r="O33" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="P33" s="5">
         <v>3.68</v>
       </c>
-      <c r="P33" s="3">
-        <v>3.7</v>
-      </c>
       <c r="Q33" s="5">
-        <v>3.68</v>
+        <v>3.71</v>
       </c>
       <c r="R33" s="5">
-        <v>3.71</v>
+        <v>3.74</v>
       </c>
       <c r="S33" s="5">
-        <v>3.74</v>
-      </c>
-      <c r="T33" s="5">
         <v>3.65</v>
       </c>
-      <c r="U33" s="5" t="s">
+      <c r="T33" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2848,27 +2924,29 @@
       <c r="D34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3">
+        <v>145.0</v>
+      </c>
       <c r="F34" s="3">
-        <v>145.0</v>
+        <v>129.0</v>
       </c>
       <c r="G34" s="3">
-        <v>129.0</v>
+        <v>112.0</v>
       </c>
       <c r="H34" s="3">
-        <v>112.0</v>
+        <v>87.0</v>
       </c>
       <c r="I34" s="3">
+        <v>86.0</v>
+      </c>
+      <c r="J34" s="3">
         <v>87.0</v>
       </c>
-      <c r="J34" s="3">
-        <v>86.0</v>
-      </c>
       <c r="K34" s="3">
-        <v>87.0</v>
+        <v>83.0</v>
       </c>
       <c r="L34" s="3">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
       <c r="M34" s="3">
         <v>84.0</v>
@@ -2877,24 +2955,21 @@
         <v>84.0</v>
       </c>
       <c r="O34" s="3">
-        <v>84.0</v>
-      </c>
-      <c r="P34" s="3">
         <v>92.0</v>
       </c>
+      <c r="P34" s="5">
+        <v>65.0</v>
+      </c>
       <c r="Q34" s="5">
-        <v>65.0</v>
+        <v>59.0</v>
       </c>
       <c r="R34" s="5">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="S34" s="5">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="T34" s="5">
-        <v>61.0</v>
-      </c>
-      <c r="U34" s="5">
         <v>49.0</v>
       </c>
     </row>
@@ -2911,27 +2986,29 @@
       <c r="D35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="F35" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>39</v>
@@ -2940,24 +3017,21 @@
         <v>39</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P35" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="P35" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="Q35" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="T35" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="U35" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2974,53 +3048,52 @@
       <c r="D36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="3">
+        <v>3.35</v>
+      </c>
       <c r="F36" s="3">
-        <v>3.35</v>
+        <v>3.41</v>
       </c>
       <c r="G36" s="3">
-        <v>3.41</v>
+        <v>3.39</v>
       </c>
       <c r="H36" s="3">
+        <v>3.36</v>
+      </c>
+      <c r="I36" s="3">
+        <v>3.38</v>
+      </c>
+      <c r="J36" s="3">
+        <v>3.46</v>
+      </c>
+      <c r="K36" s="3">
+        <v>3.49</v>
+      </c>
+      <c r="L36" s="3">
+        <v>3.51</v>
+      </c>
+      <c r="M36" s="3">
+        <v>3.46</v>
+      </c>
+      <c r="N36" s="3">
+        <v>3.48</v>
+      </c>
+      <c r="O36" s="3">
         <v>3.39</v>
       </c>
-      <c r="I36" s="3">
-        <v>3.36</v>
-      </c>
-      <c r="J36" s="3">
-        <v>3.38</v>
-      </c>
-      <c r="K36" s="3">
+      <c r="P36" s="5">
         <v>3.46</v>
       </c>
-      <c r="L36" s="3">
-        <v>3.49</v>
-      </c>
-      <c r="M36" s="3">
+      <c r="Q36" s="5">
+        <v>3.52</v>
+      </c>
+      <c r="R36" s="5">
         <v>3.51</v>
       </c>
-      <c r="N36" s="3">
-        <v>3.46</v>
-      </c>
-      <c r="O36" s="3">
-        <v>3.48</v>
-      </c>
-      <c r="P36" s="3">
-        <v>3.39</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>3.46</v>
-      </c>
-      <c r="R36" s="5">
-        <v>3.52</v>
-      </c>
       <c r="S36" s="5">
-        <v>3.51</v>
+        <v>3.24</v>
       </c>
       <c r="T36" s="5">
-        <v>3.24</v>
-      </c>
-      <c r="U36" s="5">
         <v>3.38</v>
       </c>
     </row>
@@ -3037,53 +3110,52 @@
       <c r="D37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3">
+        <v>157.0</v>
+      </c>
       <c r="F37" s="3">
-        <v>157.0</v>
+        <v>166.0</v>
       </c>
       <c r="G37" s="3">
-        <v>166.0</v>
+        <v>170.0</v>
       </c>
       <c r="H37" s="3">
-        <v>170.0</v>
+        <v>215.0</v>
       </c>
       <c r="I37" s="3">
-        <v>215.0</v>
+        <v>211.0</v>
       </c>
       <c r="J37" s="3">
-        <v>211.0</v>
+        <v>203.0</v>
       </c>
       <c r="K37" s="3">
-        <v>203.0</v>
+        <v>195.0</v>
       </c>
       <c r="L37" s="3">
-        <v>195.0</v>
+        <v>201.0</v>
       </c>
       <c r="M37" s="3">
-        <v>201.0</v>
+        <v>239.0</v>
       </c>
       <c r="N37" s="3">
-        <v>239.0</v>
+        <v>230.0</v>
       </c>
       <c r="O37" s="3">
-        <v>230.0</v>
-      </c>
-      <c r="P37" s="3">
         <v>243.0</v>
       </c>
+      <c r="P37" s="5">
+        <v>206.0</v>
+      </c>
       <c r="Q37" s="5">
-        <v>206.0</v>
+        <v>261.0</v>
       </c>
       <c r="R37" s="5">
-        <v>261.0</v>
+        <v>247.0</v>
       </c>
       <c r="S37" s="5">
-        <v>247.0</v>
+        <v>294.0</v>
       </c>
       <c r="T37" s="5">
-        <v>294.0</v>
-      </c>
-      <c r="U37" s="5">
         <v>231.0</v>
       </c>
     </row>
@@ -3100,21 +3172,23 @@
       <c r="D38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="F38" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>44</v>
@@ -3123,30 +3197,27 @@
         <v>44</v>
       </c>
       <c r="M38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="R38" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S38" s="5" t="s">
         <v>42</v>
       </c>
       <c r="T38" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U38" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3163,53 +3234,52 @@
       <c r="D39" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="E39" s="3">
+        <v>3.39</v>
+      </c>
       <c r="F39" s="3">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="G39" s="3">
-        <v>3.37</v>
+        <v>3.49</v>
       </c>
       <c r="H39" s="3">
-        <v>3.49</v>
+        <v>3.44</v>
       </c>
       <c r="I39" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="J39" s="3">
+        <v>3.61</v>
+      </c>
+      <c r="K39" s="3">
+        <v>3.63</v>
+      </c>
+      <c r="L39" s="3">
         <v>3.44</v>
       </c>
-      <c r="J39" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="K39" s="3">
-        <v>3.61</v>
-      </c>
-      <c r="L39" s="3">
-        <v>3.63</v>
-      </c>
       <c r="M39" s="3">
-        <v>3.44</v>
+        <v>3.46</v>
       </c>
       <c r="N39" s="3">
-        <v>3.46</v>
+        <v>3.5</v>
       </c>
       <c r="O39" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="P39" s="3">
         <v>3.47</v>
       </c>
+      <c r="P39" s="5">
+        <v>3.48</v>
+      </c>
       <c r="Q39" s="5">
-        <v>3.48</v>
+        <v>3.55</v>
       </c>
       <c r="R39" s="5">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="S39" s="5">
-        <v>3.6</v>
+        <v>3.32</v>
       </c>
       <c r="T39" s="5">
-        <v>3.32</v>
-      </c>
-      <c r="U39" s="5">
         <v>3.24</v>
       </c>
     </row>
@@ -3226,491 +3296,485 @@
       <c r="D40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="3"/>
+      <c r="E40" s="3">
+        <v>448.0</v>
+      </c>
       <c r="F40" s="3">
-        <v>448.0</v>
+        <v>520.0</v>
       </c>
       <c r="G40" s="3">
-        <v>520.0</v>
+        <v>492.0</v>
       </c>
       <c r="H40" s="3">
-        <v>492.0</v>
+        <v>549.0</v>
       </c>
       <c r="I40" s="3">
-        <v>549.0</v>
+        <v>540.0</v>
       </c>
       <c r="J40" s="3">
+        <v>532.0</v>
+      </c>
+      <c r="K40" s="3">
+        <v>530.0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>485.0</v>
+      </c>
+      <c r="M40" s="3">
+        <v>489.0</v>
+      </c>
+      <c r="N40" s="3">
+        <v>553.0</v>
+      </c>
+      <c r="O40" s="3">
         <v>540.0</v>
       </c>
-      <c r="K40" s="3">
-        <v>532.0</v>
-      </c>
-      <c r="L40" s="3">
-        <v>530.0</v>
-      </c>
-      <c r="M40" s="3">
-        <v>485.0</v>
-      </c>
-      <c r="N40" s="3">
-        <v>489.0</v>
-      </c>
-      <c r="O40" s="3">
-        <v>553.0</v>
-      </c>
-      <c r="P40" s="3">
-        <v>540.0</v>
+      <c r="P40" s="5">
+        <v>475.0</v>
       </c>
       <c r="Q40" s="5">
-        <v>475.0</v>
+        <v>528.0</v>
       </c>
       <c r="R40" s="5">
-        <v>528.0</v>
+        <v>487.0</v>
       </c>
       <c r="S40" s="5">
-        <v>487.0</v>
+        <v>619.0</v>
       </c>
       <c r="T40" s="5">
-        <v>619.0</v>
-      </c>
-      <c r="U40" s="5">
         <v>488.0</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C41" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="F41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J41" s="3" t="s">
+      <c r="M41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S41" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="S41" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="T41" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="U41" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="3">
+        <v>3.6</v>
+      </c>
       <c r="F42" s="3">
+        <v>3.65</v>
+      </c>
+      <c r="G42" s="3">
+        <v>3.87</v>
+      </c>
+      <c r="H42" s="3">
+        <v>3.77</v>
+      </c>
+      <c r="I42" s="3">
+        <v>3.58</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3.63</v>
+      </c>
+      <c r="K42" s="3">
+        <v>3.61</v>
+      </c>
+      <c r="L42" s="3">
+        <v>3.56</v>
+      </c>
+      <c r="M42" s="3">
+        <v>3.53</v>
+      </c>
+      <c r="N42" s="3">
+        <v>3.54</v>
+      </c>
+      <c r="O42" s="3">
+        <v>3.51</v>
+      </c>
+      <c r="P42" s="5">
         <v>3.6</v>
       </c>
-      <c r="G42" s="3">
-        <v>3.65</v>
-      </c>
-      <c r="H42" s="3">
-        <v>3.87</v>
-      </c>
-      <c r="I42" s="3">
-        <v>3.77</v>
-      </c>
-      <c r="J42" s="3">
-        <v>3.58</v>
-      </c>
-      <c r="K42" s="3">
-        <v>3.63</v>
-      </c>
-      <c r="L42" s="3">
-        <v>3.61</v>
-      </c>
-      <c r="M42" s="3">
-        <v>3.56</v>
-      </c>
-      <c r="N42" s="3">
-        <v>3.53</v>
-      </c>
-      <c r="O42" s="3">
-        <v>3.54</v>
-      </c>
-      <c r="P42" s="3">
-        <v>3.51</v>
-      </c>
       <c r="Q42" s="5">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="R42" s="5">
-        <v>3.55</v>
+        <v>3.67</v>
       </c>
       <c r="S42" s="5">
-        <v>3.67</v>
+        <v>3.36</v>
       </c>
       <c r="T42" s="5">
-        <v>3.36</v>
-      </c>
-      <c r="U42" s="5">
         <v>3.38</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C43" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="3"/>
+      <c r="E43" s="3">
+        <v>203.0</v>
+      </c>
       <c r="F43" s="3">
-        <v>203.0</v>
+        <v>180.0</v>
       </c>
       <c r="G43" s="3">
-        <v>180.0</v>
+        <v>96.0</v>
       </c>
       <c r="H43" s="3">
-        <v>96.0</v>
+        <v>129.0</v>
       </c>
       <c r="I43" s="3">
-        <v>129.0</v>
+        <v>99.0</v>
       </c>
       <c r="J43" s="3">
-        <v>99.0</v>
+        <v>90.0</v>
       </c>
       <c r="K43" s="3">
-        <v>90.0</v>
+        <v>87.0</v>
       </c>
       <c r="L43" s="3">
-        <v>87.0</v>
+        <v>86.0</v>
       </c>
       <c r="M43" s="3">
-        <v>86.0</v>
+        <v>71.0</v>
       </c>
       <c r="N43" s="3">
-        <v>71.0</v>
+        <v>93.0</v>
       </c>
       <c r="O43" s="3">
-        <v>93.0</v>
-      </c>
-      <c r="P43" s="3">
         <v>95.0</v>
       </c>
+      <c r="P43" s="5">
+        <v>89.0</v>
+      </c>
       <c r="Q43" s="5">
-        <v>89.0</v>
+        <v>130.0</v>
       </c>
       <c r="R43" s="5">
-        <v>130.0</v>
+        <v>148.0</v>
       </c>
       <c r="S43" s="5">
-        <v>148.0</v>
+        <v>145.0</v>
       </c>
       <c r="T43" s="5">
-        <v>145.0</v>
-      </c>
-      <c r="U43" s="5">
         <v>170.0</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="F44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="K44" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P44" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="Q44" s="5" t="s">
         <v>42</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S44" s="5" t="s">
         <v>40</v>
       </c>
       <c r="T44" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="U44" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="3"/>
+      <c r="E45" s="3">
+        <v>3.72</v>
+      </c>
       <c r="F45" s="3">
-        <v>3.72</v>
+        <v>3.7</v>
       </c>
       <c r="G45" s="3">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H45" s="3">
-        <v>3.9</v>
+        <v>3.92</v>
       </c>
       <c r="I45" s="3">
-        <v>3.92</v>
+        <v>3.56</v>
       </c>
       <c r="J45" s="3">
-        <v>3.56</v>
+        <v>3.68</v>
       </c>
       <c r="K45" s="3">
-        <v>3.68</v>
+        <v>3.65</v>
       </c>
       <c r="L45" s="3">
-        <v>3.65</v>
+        <v>3.61</v>
       </c>
       <c r="M45" s="3">
-        <v>3.61</v>
+        <v>3.54</v>
       </c>
       <c r="N45" s="3">
-        <v>3.54</v>
+        <v>3.55</v>
       </c>
       <c r="O45" s="3">
         <v>3.55</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="5">
+        <v>3.54</v>
+      </c>
+      <c r="Q45" s="5">
         <v>3.55</v>
       </c>
-      <c r="Q45" s="5">
-        <v>3.54</v>
-      </c>
       <c r="R45" s="5">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="S45" s="5">
-        <v>3.56</v>
+        <v>3.33</v>
       </c>
       <c r="T45" s="5">
-        <v>3.33</v>
-      </c>
-      <c r="U45" s="5">
         <v>3.4</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="3"/>
+      <c r="E46" s="3">
+        <v>497.0</v>
+      </c>
       <c r="F46" s="3">
-        <v>497.0</v>
+        <v>402.0</v>
       </c>
       <c r="G46" s="3">
-        <v>402.0</v>
+        <v>478.0</v>
       </c>
       <c r="H46" s="3">
-        <v>478.0</v>
+        <v>472.0</v>
       </c>
       <c r="I46" s="3">
-        <v>472.0</v>
+        <v>424.0</v>
       </c>
       <c r="J46" s="3">
-        <v>424.0</v>
+        <v>347.0</v>
       </c>
       <c r="K46" s="3">
-        <v>347.0</v>
+        <v>308.0</v>
       </c>
       <c r="L46" s="3">
-        <v>308.0</v>
+        <v>263.0</v>
       </c>
       <c r="M46" s="3">
-        <v>263.0</v>
+        <v>268.0</v>
       </c>
       <c r="N46" s="3">
-        <v>268.0</v>
+        <v>265.0</v>
       </c>
       <c r="O46" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="P46" s="3">
         <v>253.0</v>
       </c>
+      <c r="P46" s="5">
+        <v>246.0</v>
+      </c>
       <c r="Q46" s="5">
-        <v>246.0</v>
+        <v>299.0</v>
       </c>
       <c r="R46" s="5">
-        <v>299.0</v>
+        <v>218.0</v>
       </c>
       <c r="S46" s="5">
-        <v>218.0</v>
+        <v>221.0</v>
       </c>
       <c r="T46" s="5">
-        <v>221.0</v>
-      </c>
-      <c r="U46" s="5">
         <v>198.0</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F47" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K47" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="3"/>
+      <c r="E48" s="3">
+        <v>3.9</v>
+      </c>
       <c r="F48" s="3">
         <v>3.9</v>
       </c>
-      <c r="G48" s="3">
-        <v>3.9</v>
+      <c r="G48" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>26</v>
@@ -3721,72 +3785,70 @@
       <c r="J48" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="3"/>
+      <c r="E49" s="3">
+        <v>121.0</v>
+      </c>
       <c r="F49" s="3">
-        <v>121.0</v>
+        <v>75.0</v>
       </c>
       <c r="G49" s="3">
-        <v>75.0</v>
+        <v>87.0</v>
       </c>
       <c r="H49" s="3">
-        <v>87.0</v>
+        <v>74.0</v>
       </c>
       <c r="I49" s="3">
-        <v>74.0</v>
+        <v>52.0</v>
       </c>
       <c r="J49" s="3">
-        <v>52.0</v>
-      </c>
-      <c r="K49" s="3">
         <v>24.0</v>
       </c>
+      <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F50" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>35</v>
@@ -3797,529 +3859,519 @@
       <c r="J50" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="3"/>
+      <c r="E51" s="3">
+        <v>3.76</v>
+      </c>
       <c r="F51" s="3">
-        <v>3.76</v>
+        <v>3.78</v>
       </c>
       <c r="G51" s="3">
-        <v>3.78</v>
+        <v>3.56</v>
       </c>
       <c r="H51" s="3">
-        <v>3.56</v>
+        <v>3.85</v>
       </c>
       <c r="I51" s="3">
-        <v>3.85</v>
-      </c>
-      <c r="J51" s="3">
         <v>3.84</v>
       </c>
-      <c r="K51" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="J51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E52" s="3"/>
+      <c r="E52" s="3">
+        <v>111.0</v>
+      </c>
       <c r="F52" s="3">
-        <v>111.0</v>
+        <v>93.0</v>
       </c>
       <c r="G52" s="3">
-        <v>93.0</v>
+        <v>107.0</v>
       </c>
       <c r="H52" s="3">
-        <v>107.0</v>
+        <v>101.0</v>
       </c>
       <c r="I52" s="3">
-        <v>101.0</v>
+        <v>63.0</v>
       </c>
       <c r="J52" s="3">
-        <v>63.0</v>
-      </c>
-      <c r="K52" s="3">
         <v>27.0</v>
       </c>
+      <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="F53" s="3" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P53" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P53" s="5" t="s">
         <v>45</v>
       </c>
       <c r="Q53" s="5" t="s">
         <v>45</v>
       </c>
       <c r="R53" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="S53" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="S53" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="T53" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="U53" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="3"/>
+      <c r="E54" s="3">
+        <v>3.73</v>
+      </c>
       <c r="F54" s="3">
-        <v>3.73</v>
+        <v>3.71</v>
       </c>
       <c r="G54" s="3">
+        <v>3.67</v>
+      </c>
+      <c r="H54" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="I54" s="3">
         <v>3.71</v>
       </c>
-      <c r="H54" s="3">
-        <v>3.67</v>
-      </c>
-      <c r="I54" s="3">
-        <v>3.7</v>
-      </c>
       <c r="J54" s="3">
-        <v>3.71</v>
+        <v>3.79</v>
       </c>
       <c r="K54" s="3">
-        <v>3.79</v>
+        <v>3.78</v>
       </c>
       <c r="L54" s="3">
-        <v>3.78</v>
+        <v>3.68</v>
       </c>
       <c r="M54" s="3">
-        <v>3.68</v>
+        <v>3.54</v>
       </c>
       <c r="N54" s="3">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="O54" s="3">
-        <v>3.58</v>
-      </c>
-      <c r="P54" s="3">
         <v>3.37</v>
       </c>
+      <c r="P54" s="5">
+        <v>3.49</v>
+      </c>
       <c r="Q54" s="5">
-        <v>3.49</v>
+        <v>3.37</v>
       </c>
       <c r="R54" s="5">
-        <v>3.37</v>
+        <v>3.35</v>
       </c>
       <c r="S54" s="5">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="T54" s="5">
-        <v>3.29</v>
-      </c>
-      <c r="U54" s="5">
         <v>3.32</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="3"/>
+      <c r="E55" s="3">
+        <v>220.0</v>
+      </c>
       <c r="F55" s="3">
-        <v>220.0</v>
+        <v>236.0</v>
       </c>
       <c r="G55" s="3">
-        <v>236.0</v>
+        <v>219.0</v>
       </c>
       <c r="H55" s="3">
-        <v>219.0</v>
+        <v>208.0</v>
       </c>
       <c r="I55" s="3">
-        <v>208.0</v>
+        <v>263.0</v>
       </c>
       <c r="J55" s="3">
-        <v>263.0</v>
+        <v>209.0</v>
       </c>
       <c r="K55" s="3">
-        <v>209.0</v>
+        <v>252.0</v>
       </c>
       <c r="L55" s="3">
-        <v>252.0</v>
+        <v>250.0</v>
       </c>
       <c r="M55" s="3">
-        <v>250.0</v>
+        <v>305.0</v>
       </c>
       <c r="N55" s="3">
-        <v>305.0</v>
+        <v>314.0</v>
       </c>
       <c r="O55" s="3">
-        <v>314.0</v>
-      </c>
-      <c r="P55" s="3">
         <v>351.0</v>
       </c>
+      <c r="P55" s="5">
+        <v>265.0</v>
+      </c>
       <c r="Q55" s="5">
-        <v>265.0</v>
+        <v>348.0</v>
       </c>
       <c r="R55" s="5">
-        <v>348.0</v>
+        <v>311.0</v>
       </c>
       <c r="S55" s="5">
-        <v>311.0</v>
+        <v>389.0</v>
       </c>
       <c r="T55" s="5">
-        <v>389.0</v>
-      </c>
-      <c r="U55" s="5">
         <v>340.0</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="F56" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>45</v>
       </c>
       <c r="J56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K56" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K56" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="L56" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M56" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N56" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N56" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="O56" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P56" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="P56" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="Q56" s="5" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="R56" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S56" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="S56" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="T56" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="U56" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="3"/>
+      <c r="E57" s="3">
+        <v>3.52</v>
+      </c>
       <c r="F57" s="3">
-        <v>3.52</v>
+        <v>3.57</v>
       </c>
       <c r="G57" s="3">
+        <v>3.68</v>
+      </c>
+      <c r="H57" s="3">
+        <v>3.63</v>
+      </c>
+      <c r="I57" s="3">
+        <v>3.49</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3.66</v>
+      </c>
+      <c r="K57" s="3">
+        <v>3.58</v>
+      </c>
+      <c r="L57" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="M57" s="3">
+        <v>3.46</v>
+      </c>
+      <c r="N57" s="3">
         <v>3.57</v>
       </c>
-      <c r="H57" s="3">
-        <v>3.68</v>
-      </c>
-      <c r="I57" s="3">
-        <v>3.63</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3.49</v>
-      </c>
-      <c r="K57" s="3">
-        <v>3.66</v>
-      </c>
-      <c r="L57" s="3">
-        <v>3.58</v>
-      </c>
-      <c r="M57" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="N57" s="3">
-        <v>3.46</v>
-      </c>
       <c r="O57" s="3">
-        <v>3.57</v>
-      </c>
-      <c r="P57" s="3">
         <v>3.27</v>
       </c>
+      <c r="P57" s="5">
+        <v>3.3</v>
+      </c>
       <c r="Q57" s="5">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="R57" s="5">
+        <v>3.39</v>
+      </c>
+      <c r="S57" s="5">
         <v>3.33</v>
       </c>
-      <c r="S57" s="5">
-        <v>3.39</v>
-      </c>
       <c r="T57" s="5">
-        <v>3.33</v>
-      </c>
-      <c r="U57" s="5">
         <v>3.4</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="3"/>
+      <c r="E58" s="3">
+        <v>200.0</v>
+      </c>
       <c r="F58" s="3">
-        <v>200.0</v>
+        <v>170.0</v>
       </c>
       <c r="G58" s="3">
-        <v>170.0</v>
+        <v>180.0</v>
       </c>
       <c r="H58" s="3">
-        <v>180.0</v>
+        <v>201.0</v>
       </c>
       <c r="I58" s="3">
-        <v>201.0</v>
+        <v>231.0</v>
       </c>
       <c r="J58" s="3">
-        <v>231.0</v>
+        <v>205.0</v>
       </c>
       <c r="K58" s="3">
+        <v>198.0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>244.0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>236.0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>297.0</v>
+      </c>
+      <c r="P58" s="5">
+        <v>215.0</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>227.0</v>
+      </c>
+      <c r="R58" s="5">
         <v>205.0</v>
       </c>
-      <c r="L58" s="3">
-        <v>198.0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>244.0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>236.0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>297.0</v>
-      </c>
-      <c r="Q58" s="5">
-        <v>215.0</v>
-      </c>
-      <c r="R58" s="5">
-        <v>227.0</v>
-      </c>
       <c r="S58" s="5">
-        <v>205.0</v>
+        <v>298.0</v>
       </c>
       <c r="T58" s="5">
-        <v>298.0</v>
-      </c>
-      <c r="U58" s="5">
         <v>285.0</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N59" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P59" s="3"/>
+      <c r="O59" s="3"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F60" s="3" t="s">
         <v>26</v>
       </c>
@@ -4347,106 +4399,104 @@
       <c r="N60" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P60" s="3"/>
+      <c r="O60" s="3"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="3"/>
+      <c r="E61" s="3">
+        <v>48.0</v>
+      </c>
       <c r="F61" s="3">
         <v>48.0</v>
       </c>
       <c r="G61" s="3">
-        <v>48.0</v>
+        <v>31.0</v>
       </c>
       <c r="H61" s="3">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="I61" s="3">
-        <v>29.0</v>
+        <v>34.0</v>
       </c>
       <c r="J61" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="L61" s="3">
         <v>34.0</v>
       </c>
-      <c r="K61" s="3">
-        <v>24.0</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="N61" s="3">
         <v>27.0</v>
       </c>
-      <c r="M61" s="3">
-        <v>34.0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>27.0</v>
-      </c>
-      <c r="P61" s="3"/>
+      <c r="O61" s="3"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F62" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>42</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>43</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P62" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="P62" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="Q62" s="5" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="R62" s="5" t="s">
         <v>64</v>
@@ -4457,185 +4507,182 @@
       <c r="T62" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="U62" s="5" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="3"/>
+      <c r="E63" s="3">
+        <v>3.53</v>
+      </c>
       <c r="F63" s="3">
-        <v>3.53</v>
-      </c>
-      <c r="G63" s="3">
         <v>3.36</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I63" s="3">
+      <c r="G63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" s="3">
         <v>3.45</v>
       </c>
+      <c r="I63" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="J63" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K63" s="3" t="s">
-        <v>26</v>
+      <c r="K63" s="3">
+        <v>3.6</v>
       </c>
       <c r="L63" s="3">
+        <v>3.55</v>
+      </c>
+      <c r="M63" s="3">
+        <v>3.56</v>
+      </c>
+      <c r="N63" s="3">
         <v>3.6</v>
       </c>
-      <c r="M63" s="3">
-        <v>3.55</v>
-      </c>
-      <c r="N63" s="3">
-        <v>3.56</v>
-      </c>
       <c r="O63" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="P63" s="3">
         <v>3.52</v>
       </c>
-      <c r="Q63" s="5" t="s">
-        <v>26</v>
+      <c r="P63" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>3.54</v>
       </c>
       <c r="R63" s="5">
-        <v>3.54</v>
-      </c>
-      <c r="S63" s="5">
         <v>3.36</v>
       </c>
+      <c r="S63" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="T63" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="U63" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E64" s="3"/>
+      <c r="E64" s="3">
+        <v>170.0</v>
+      </c>
       <c r="F64" s="3">
-        <v>170.0</v>
+        <v>138.0</v>
       </c>
       <c r="G64" s="3">
-        <v>138.0</v>
+        <v>133.0</v>
       </c>
       <c r="H64" s="3">
-        <v>133.0</v>
+        <v>129.0</v>
       </c>
       <c r="I64" s="3">
-        <v>129.0</v>
+        <v>152.0</v>
       </c>
       <c r="J64" s="3">
-        <v>152.0</v>
+        <v>184.0</v>
       </c>
       <c r="K64" s="3">
-        <v>184.0</v>
+        <v>157.0</v>
       </c>
       <c r="L64" s="3">
-        <v>157.0</v>
+        <v>169.0</v>
       </c>
       <c r="M64" s="3">
-        <v>169.0</v>
+        <v>178.0</v>
       </c>
       <c r="N64" s="3">
-        <v>178.0</v>
+        <v>166.0</v>
       </c>
       <c r="O64" s="3">
-        <v>166.0</v>
-      </c>
-      <c r="P64" s="3">
         <v>206.0</v>
       </c>
+      <c r="P64" s="5">
+        <v>105.0</v>
+      </c>
       <c r="Q64" s="5">
-        <v>105.0</v>
+        <v>136.0</v>
       </c>
       <c r="R64" s="5">
-        <v>136.0</v>
+        <v>112.0</v>
       </c>
       <c r="S64" s="5">
-        <v>112.0</v>
+        <v>146.0</v>
       </c>
       <c r="T64" s="5">
-        <v>146.0</v>
-      </c>
-      <c r="U64" s="5">
         <v>141.0</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E65" s="3"/>
+      <c r="E65" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="F65" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="N65" s="3" t="s">
         <v>63</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P65" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="P65" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="Q65" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="R65" s="5" t="s">
         <v>58</v>
@@ -4646,41 +4693,40 @@
       <c r="T65" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="U65" s="5" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E66" s="3"/>
+      <c r="E66" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="F66" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>26</v>
@@ -4694,7 +4740,7 @@
       <c r="O66" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P66" s="3" t="s">
+      <c r="P66" s="5" t="s">
         <v>26</v>
       </c>
       <c r="Q66" s="5" t="s">
@@ -4707,467 +4753,459 @@
         <v>26</v>
       </c>
       <c r="T66" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="U66" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="F67" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="K67" s="3">
+        <v>38.0</v>
       </c>
       <c r="L67" s="3">
-        <v>38.0</v>
+        <v>94.0</v>
       </c>
       <c r="M67" s="3">
-        <v>94.0</v>
+        <v>68.0</v>
       </c>
       <c r="N67" s="3">
-        <v>68.0</v>
+        <v>82.0</v>
       </c>
       <c r="O67" s="3">
-        <v>82.0</v>
-      </c>
-      <c r="P67" s="3">
         <v>96.0</v>
       </c>
+      <c r="P67" s="5">
+        <v>103.0</v>
+      </c>
       <c r="Q67" s="5">
-        <v>103.0</v>
+        <v>111.0</v>
       </c>
       <c r="R67" s="5">
-        <v>111.0</v>
+        <v>101.0</v>
       </c>
       <c r="S67" s="5">
-        <v>101.0</v>
+        <v>122.0</v>
       </c>
       <c r="T67" s="5">
-        <v>122.0</v>
-      </c>
-      <c r="U67" s="5">
         <v>117.0</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E68" s="3"/>
+      <c r="E68" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="F68" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>55</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P68" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="P68" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="Q68" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="R68" s="5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="S68" s="5" t="s">
         <v>61</v>
       </c>
       <c r="T68" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="U68" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3">
+      <c r="E69" s="3">
         <v>3.37</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>26</v>
+      <c r="F69" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="3">
+        <v>3.41</v>
       </c>
       <c r="H69" s="3">
-        <v>3.41</v>
+        <v>3.5</v>
       </c>
       <c r="I69" s="3">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="J69" s="3">
         <v>3.52</v>
       </c>
       <c r="K69" s="3">
-        <v>3.52</v>
+        <v>3.48</v>
       </c>
       <c r="L69" s="3">
-        <v>3.48</v>
+        <v>3.44</v>
       </c>
       <c r="M69" s="3">
-        <v>3.44</v>
+        <v>3.47</v>
       </c>
       <c r="N69" s="3">
-        <v>3.47</v>
+        <v>3.34</v>
       </c>
       <c r="O69" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="P69" s="5">
         <v>3.34</v>
       </c>
-      <c r="P69" s="3">
-        <v>3.35</v>
-      </c>
       <c r="Q69" s="5">
-        <v>3.34</v>
+        <v>3.32</v>
       </c>
       <c r="R69" s="5">
-        <v>3.32</v>
+        <v>3.2</v>
       </c>
       <c r="S69" s="5">
-        <v>3.2</v>
+        <v>3.27</v>
       </c>
       <c r="T69" s="5">
-        <v>3.27</v>
-      </c>
-      <c r="U69" s="5">
         <v>3.28</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E70" s="3"/>
+      <c r="E70" s="3">
+        <v>68.0</v>
+      </c>
       <c r="F70" s="3">
-        <v>68.0</v>
+        <v>57.0</v>
       </c>
       <c r="G70" s="3">
-        <v>57.0</v>
+        <v>67.0</v>
       </c>
       <c r="H70" s="3">
-        <v>67.0</v>
+        <v>80.0</v>
       </c>
       <c r="I70" s="3">
         <v>80.0</v>
       </c>
       <c r="J70" s="3">
-        <v>80.0</v>
+        <v>87.0</v>
       </c>
       <c r="K70" s="3">
-        <v>87.0</v>
+        <v>98.0</v>
       </c>
       <c r="L70" s="3">
-        <v>98.0</v>
+        <v>121.0</v>
       </c>
       <c r="M70" s="3">
         <v>121.0</v>
       </c>
       <c r="N70" s="3">
-        <v>121.0</v>
+        <v>156.0</v>
       </c>
       <c r="O70" s="3">
-        <v>156.0</v>
-      </c>
-      <c r="P70" s="3">
         <v>118.0</v>
       </c>
+      <c r="P70" s="5">
+        <v>118.0</v>
+      </c>
       <c r="Q70" s="5">
-        <v>118.0</v>
+        <v>107.0</v>
       </c>
       <c r="R70" s="5">
-        <v>107.0</v>
+        <v>109.0</v>
       </c>
       <c r="S70" s="5">
-        <v>109.0</v>
+        <v>83.0</v>
       </c>
       <c r="T70" s="5">
-        <v>83.0</v>
-      </c>
-      <c r="U70" s="5">
         <v>65.0</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="C71" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E71" s="3"/>
+      <c r="E71" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="F71" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L71" s="3" t="s">
         <v>37</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N71" s="3" t="s">
         <v>35</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P71" s="3" t="s">
         <v>65</v>
+      </c>
+      <c r="P71" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="Q71" s="5" t="s">
         <v>36</v>
       </c>
       <c r="R71" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="S71" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S71" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="T71" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U71" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E72" s="3"/>
+      <c r="E72" s="3">
+        <v>3.59</v>
+      </c>
       <c r="F72" s="3">
-        <v>3.59</v>
+        <v>3.65</v>
       </c>
       <c r="G72" s="3">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="H72" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="I72" s="3">
         <v>3.63</v>
       </c>
-      <c r="I72" s="3">
-        <v>3.74</v>
-      </c>
       <c r="J72" s="3">
-        <v>3.63</v>
+        <v>3.71</v>
       </c>
       <c r="K72" s="3">
-        <v>3.71</v>
+        <v>3.73</v>
       </c>
       <c r="L72" s="3">
-        <v>3.73</v>
+        <v>3.8</v>
       </c>
       <c r="M72" s="3">
-        <v>3.8</v>
+        <v>3.78</v>
       </c>
       <c r="N72" s="3">
         <v>3.78</v>
       </c>
       <c r="O72" s="3">
+        <v>3.79</v>
+      </c>
+      <c r="P72" s="5">
         <v>3.78</v>
       </c>
-      <c r="P72" s="3">
-        <v>3.79</v>
-      </c>
       <c r="Q72" s="5">
-        <v>3.78</v>
+        <v>3.73</v>
       </c>
       <c r="R72" s="5">
-        <v>3.73</v>
+        <v>3.65</v>
       </c>
       <c r="S72" s="5">
-        <v>3.65</v>
+        <v>3.69</v>
       </c>
       <c r="T72" s="5">
-        <v>3.69</v>
-      </c>
-      <c r="U72" s="5">
         <v>3.71</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E73" s="3"/>
+      <c r="E73" s="3">
+        <v>357.0</v>
+      </c>
       <c r="F73" s="3">
-        <v>357.0</v>
+        <v>352.0</v>
       </c>
       <c r="G73" s="3">
-        <v>352.0</v>
+        <v>414.0</v>
       </c>
       <c r="H73" s="3">
-        <v>414.0</v>
+        <v>481.0</v>
       </c>
       <c r="I73" s="3">
-        <v>481.0</v>
+        <v>507.0</v>
       </c>
       <c r="J73" s="3">
-        <v>507.0</v>
+        <v>541.0</v>
       </c>
       <c r="K73" s="3">
-        <v>541.0</v>
+        <v>611.0</v>
       </c>
       <c r="L73" s="3">
-        <v>611.0</v>
+        <v>618.0</v>
       </c>
       <c r="M73" s="3">
-        <v>618.0</v>
+        <v>606.0</v>
       </c>
       <c r="N73" s="3">
-        <v>606.0</v>
+        <v>629.0</v>
       </c>
       <c r="O73" s="3">
-        <v>629.0</v>
-      </c>
-      <c r="P73" s="3">
         <v>595.0</v>
       </c>
+      <c r="P73" s="5">
+        <v>607.0</v>
+      </c>
       <c r="Q73" s="5">
-        <v>607.0</v>
+        <v>591.0</v>
       </c>
       <c r="R73" s="5">
-        <v>591.0</v>
+        <v>635.0</v>
       </c>
       <c r="S73" s="5">
-        <v>635.0</v>
+        <v>570.0</v>
       </c>
       <c r="T73" s="5">
-        <v>570.0</v>
-      </c>
-      <c r="U73" s="5">
         <v>574.0</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E74" s="3"/>
+      <c r="E74" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="F74" s="3" t="s">
         <v>45</v>
       </c>
@@ -5175,31 +5213,31 @@
         <v>45</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M74" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O74" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N74" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O74" s="3" t="s">
+      <c r="P74" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="P74" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="Q74" s="5" t="s">
         <v>37</v>
@@ -5208,29 +5246,28 @@
         <v>37</v>
       </c>
       <c r="S74" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T74" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U74" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E75" s="3"/>
+      <c r="E75" s="3">
+        <v>3.64</v>
+      </c>
       <c r="F75" s="3">
         <v>3.64</v>
       </c>
@@ -5238,134 +5275,130 @@
         <v>3.64</v>
       </c>
       <c r="H75" s="3">
+        <v>3.61</v>
+      </c>
+      <c r="I75" s="3">
+        <v>3.62</v>
+      </c>
+      <c r="J75" s="3">
+        <v>3.73</v>
+      </c>
+      <c r="K75" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="L75" s="3">
+        <v>3.81</v>
+      </c>
+      <c r="M75" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="N75" s="3">
+        <v>3.79</v>
+      </c>
+      <c r="O75" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="P75" s="5">
+        <v>3.74</v>
+      </c>
+      <c r="Q75" s="5">
+        <v>3.73</v>
+      </c>
+      <c r="R75" s="5">
         <v>3.64</v>
       </c>
-      <c r="I75" s="3">
-        <v>3.61</v>
-      </c>
-      <c r="J75" s="3">
+      <c r="S75" s="5">
         <v>3.62</v>
       </c>
-      <c r="K75" s="3">
-        <v>3.73</v>
-      </c>
-      <c r="L75" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="M75" s="3">
-        <v>3.81</v>
-      </c>
-      <c r="N75" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="O75" s="3">
-        <v>3.79</v>
-      </c>
-      <c r="P75" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="Q75" s="5">
-        <v>3.74</v>
-      </c>
-      <c r="R75" s="5">
-        <v>3.73</v>
-      </c>
-      <c r="S75" s="5">
-        <v>3.64</v>
-      </c>
       <c r="T75" s="5">
-        <v>3.62</v>
-      </c>
-      <c r="U75" s="5">
         <v>3.63</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E76" s="3"/>
+      <c r="E76" s="3">
+        <v>796.0</v>
+      </c>
       <c r="F76" s="3">
-        <v>796.0</v>
+        <v>806.0</v>
       </c>
       <c r="G76" s="3">
-        <v>806.0</v>
+        <v>927.0</v>
       </c>
       <c r="H76" s="3">
-        <v>927.0</v>
+        <v>935.0</v>
       </c>
       <c r="I76" s="3">
-        <v>935.0</v>
+        <v>837.0</v>
       </c>
       <c r="J76" s="3">
-        <v>837.0</v>
+        <v>750.0</v>
       </c>
       <c r="K76" s="3">
-        <v>750.0</v>
+        <v>659.0</v>
       </c>
       <c r="L76" s="3">
-        <v>659.0</v>
+        <v>626.0</v>
       </c>
       <c r="M76" s="3">
-        <v>626.0</v>
+        <v>665.0</v>
       </c>
       <c r="N76" s="3">
-        <v>665.0</v>
+        <v>643.0</v>
       </c>
       <c r="O76" s="3">
-        <v>643.0</v>
-      </c>
-      <c r="P76" s="3">
         <v>655.0</v>
       </c>
+      <c r="P76" s="5">
+        <v>591.0</v>
+      </c>
       <c r="Q76" s="5">
-        <v>591.0</v>
+        <v>567.0</v>
       </c>
       <c r="R76" s="5">
-        <v>567.0</v>
+        <v>608.0</v>
       </c>
       <c r="S76" s="5">
-        <v>608.0</v>
+        <v>436.0</v>
       </c>
       <c r="T76" s="5">
-        <v>436.0</v>
-      </c>
-      <c r="U76" s="5">
         <v>503.0</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="C77" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E77" s="3"/>
+      <c r="E77" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F77" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -5373,31 +5406,30 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="C78" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E78" s="3"/>
+      <c r="E78" s="3">
+        <v>3.51</v>
+      </c>
       <c r="F78" s="3">
-        <v>3.51</v>
+        <v>3.55</v>
       </c>
       <c r="G78" s="3">
-        <v>3.55</v>
-      </c>
-      <c r="H78" s="3">
         <v>3.54</v>
       </c>
+      <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -5405,31 +5437,30 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E79" s="3"/>
+      <c r="E79" s="3">
+        <v>54.0</v>
+      </c>
       <c r="F79" s="3">
-        <v>54.0</v>
+        <v>37.0</v>
       </c>
       <c r="G79" s="3">
-        <v>37.0</v>
-      </c>
-      <c r="H79" s="3">
         <v>51.0</v>
       </c>
+      <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -5437,31 +5468,30 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="3" t="s">
-        <v>91</v>
+      <c r="A80" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="F80" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
@@ -5469,31 +5499,30 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="3" t="s">
-        <v>91</v>
+      <c r="A81" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3" t="s">
-        <v>26</v>
+      <c r="E81" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" s="3">
+        <v>3.76</v>
       </c>
       <c r="G81" s="3">
-        <v>3.76</v>
-      </c>
-      <c r="H81" s="3">
         <v>3.77</v>
       </c>
+      <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
@@ -5501,31 +5530,30 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="3" t="s">
-        <v>91</v>
+      <c r="A82" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E82" s="3"/>
+      <c r="E82" s="3">
+        <v>43.0</v>
+      </c>
       <c r="F82" s="3">
-        <v>43.0</v>
+        <v>26.0</v>
       </c>
       <c r="G82" s="3">
-        <v>26.0</v>
-      </c>
-      <c r="H82" s="3">
         <v>36.0</v>
       </c>
+      <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -5533,36 +5561,37 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="3" t="s">
-        <v>91</v>
+      <c r="A83" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E83" s="3"/>
+      <c r="E83" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="F83" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>36</v>
@@ -5570,314 +5599,308 @@
       <c r="L83" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="3" t="s">
-        <v>91</v>
+      <c r="A84" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E84" s="3"/>
+      <c r="E84" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="F84" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I84" s="3">
+        <v>96</v>
+      </c>
+      <c r="H84" s="3">
         <v>3.66</v>
       </c>
+      <c r="I84" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="J84" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K84" s="3" t="s">
-        <v>26</v>
+      <c r="K84" s="3">
+        <v>3.74</v>
       </c>
       <c r="L84" s="3">
-        <v>3.74</v>
-      </c>
-      <c r="M84" s="3">
         <v>3.67</v>
       </c>
+      <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="3" t="s">
-        <v>91</v>
+      <c r="A85" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E85" s="3"/>
+      <c r="E85" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="F85" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="H85" s="3">
+        <v>69.0</v>
       </c>
       <c r="I85" s="3">
-        <v>69.0</v>
+        <v>57.0</v>
       </c>
       <c r="J85" s="3">
-        <v>57.0</v>
+        <v>45.0</v>
       </c>
       <c r="K85" s="3">
-        <v>45.0</v>
+        <v>39.0</v>
       </c>
       <c r="L85" s="3">
-        <v>39.0</v>
-      </c>
-      <c r="M85" s="3">
         <v>29.0</v>
       </c>
+      <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="3" t="s">
-        <v>91</v>
+      <c r="A86" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E86" s="3"/>
+      <c r="E86" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="F86" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>55</v>
       </c>
       <c r="K86" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L86" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="M86" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O86" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P86" s="3" t="s">
+      <c r="P86" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q86" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R86" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="Q86" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R86" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="S86" s="5" t="s">
         <v>52</v>
       </c>
       <c r="T86" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="U86" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="3" t="s">
-        <v>91</v>
+      <c r="A87" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E87" s="3"/>
+      <c r="E87" s="3">
+        <v>3.41</v>
+      </c>
       <c r="F87" s="3">
-        <v>3.41</v>
+        <v>3.38</v>
       </c>
       <c r="G87" s="3">
-        <v>3.38</v>
+        <v>3.36</v>
       </c>
       <c r="H87" s="3">
-        <v>3.36</v>
+        <v>3.33</v>
       </c>
       <c r="I87" s="3">
-        <v>3.33</v>
+        <v>3.3</v>
       </c>
       <c r="J87" s="3">
-        <v>3.3</v>
+        <v>3.26</v>
       </c>
       <c r="K87" s="3">
-        <v>3.26</v>
+        <v>3.28</v>
       </c>
       <c r="L87" s="3">
-        <v>3.28</v>
+        <v>3.23</v>
       </c>
       <c r="M87" s="3">
         <v>3.23</v>
       </c>
       <c r="N87" s="3">
-        <v>3.23</v>
+        <v>3.32</v>
       </c>
       <c r="O87" s="3">
-        <v>3.32</v>
-      </c>
-      <c r="P87" s="3">
         <v>3.16</v>
       </c>
+      <c r="P87" s="5">
+        <v>3.16</v>
+      </c>
       <c r="Q87" s="5">
-        <v>3.16</v>
+        <v>3.15</v>
       </c>
       <c r="R87" s="5">
-        <v>3.15</v>
+        <v>3.11</v>
       </c>
       <c r="S87" s="5">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="T87" s="5">
-        <v>3.04</v>
-      </c>
-      <c r="U87" s="5">
         <v>2.58</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="3" t="s">
-        <v>91</v>
+      <c r="A88" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E88" s="3"/>
+      <c r="E88" s="3">
+        <v>127.0</v>
+      </c>
       <c r="F88" s="3">
         <v>127.0</v>
       </c>
       <c r="G88" s="3">
-        <v>127.0</v>
+        <v>124.0</v>
       </c>
       <c r="H88" s="3">
-        <v>124.0</v>
+        <v>139.0</v>
       </c>
       <c r="I88" s="3">
-        <v>139.0</v>
+        <v>145.0</v>
       </c>
       <c r="J88" s="3">
-        <v>145.0</v>
+        <v>157.0</v>
       </c>
       <c r="K88" s="3">
-        <v>157.0</v>
+        <v>172.0</v>
       </c>
       <c r="L88" s="3">
+        <v>168.0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>169.0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>167.0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>190.0</v>
+      </c>
+      <c r="P88" s="5">
+        <v>179.0</v>
+      </c>
+      <c r="Q88" s="5">
+        <v>170.0</v>
+      </c>
+      <c r="R88" s="5">
         <v>172.0</v>
       </c>
-      <c r="M88" s="3">
-        <v>168.0</v>
-      </c>
-      <c r="N88" s="3">
-        <v>169.0</v>
-      </c>
-      <c r="O88" s="3">
-        <v>167.0</v>
-      </c>
-      <c r="P88" s="3">
-        <v>190.0</v>
-      </c>
-      <c r="Q88" s="5">
-        <v>179.0</v>
-      </c>
-      <c r="R88" s="5">
-        <v>170.0</v>
-      </c>
       <c r="S88" s="5">
-        <v>172.0</v>
+        <v>177.0</v>
       </c>
       <c r="T88" s="5">
-        <v>177.0</v>
-      </c>
-      <c r="U88" s="5">
         <v>152.0</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="3" t="s">
-        <v>91</v>
+      <c r="A89" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E89" s="3"/>
+      <c r="E89" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="F89" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H89" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J89" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>44</v>
@@ -5886,208 +5909,205 @@
         <v>44</v>
       </c>
       <c r="M89" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N89" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>44</v>
+      <c r="P89" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="Q89" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="R89" s="5" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="S89" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="T89" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="U89" s="5" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="3" t="s">
-        <v>91</v>
+      <c r="A90" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E90" s="3"/>
+      <c r="E90" s="3">
+        <v>3.41</v>
+      </c>
       <c r="F90" s="3">
+        <v>3.42</v>
+      </c>
+      <c r="G90" s="3">
+        <v>3.49</v>
+      </c>
+      <c r="H90" s="3">
+        <v>3.29</v>
+      </c>
+      <c r="I90" s="3">
         <v>3.41</v>
       </c>
-      <c r="G90" s="3">
-        <v>3.42</v>
-      </c>
-      <c r="H90" s="3">
-        <v>3.49</v>
-      </c>
-      <c r="I90" s="3">
-        <v>3.29</v>
-      </c>
       <c r="J90" s="3">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="K90" s="3">
         <v>3.44</v>
       </c>
       <c r="L90" s="3">
-        <v>3.44</v>
+        <v>3.46</v>
       </c>
       <c r="M90" s="3">
-        <v>3.46</v>
+        <v>3.37</v>
       </c>
       <c r="N90" s="3">
+        <v>3.48</v>
+      </c>
+      <c r="O90" s="3">
+        <v>3.43</v>
+      </c>
+      <c r="P90" s="5">
+        <v>3.43</v>
+      </c>
+      <c r="Q90" s="5">
+        <v>3.45</v>
+      </c>
+      <c r="R90" s="5">
+        <v>3.35</v>
+      </c>
+      <c r="S90" s="5">
+        <v>3.29</v>
+      </c>
+      <c r="T90" s="5">
         <v>3.37</v>
       </c>
-      <c r="O90" s="3">
-        <v>3.48</v>
-      </c>
-      <c r="P90" s="3">
-        <v>3.43</v>
-      </c>
-      <c r="Q90" s="5">
-        <v>3.43</v>
-      </c>
-      <c r="R90" s="5">
-        <v>3.45</v>
-      </c>
-      <c r="S90" s="5">
-        <v>3.35</v>
-      </c>
-      <c r="T90" s="5">
-        <v>3.29</v>
-      </c>
-      <c r="U90" s="5">
-        <v>3.37</v>
-      </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="3" t="s">
-        <v>91</v>
+      <c r="A91" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E91" s="3"/>
+      <c r="E91" s="3">
+        <v>75.0</v>
+      </c>
       <c r="F91" s="3">
         <v>75.0</v>
       </c>
       <c r="G91" s="3">
-        <v>75.0</v>
+        <v>71.0</v>
       </c>
       <c r="H91" s="3">
-        <v>71.0</v>
+        <v>94.0</v>
       </c>
       <c r="I91" s="3">
-        <v>94.0</v>
+        <v>73.0</v>
       </c>
       <c r="J91" s="3">
-        <v>73.0</v>
+        <v>88.0</v>
       </c>
       <c r="K91" s="3">
-        <v>88.0</v>
+        <v>92.0</v>
       </c>
       <c r="L91" s="3">
-        <v>92.0</v>
+        <v>99.0</v>
       </c>
       <c r="M91" s="3">
-        <v>99.0</v>
+        <v>111.0</v>
       </c>
       <c r="N91" s="3">
-        <v>111.0</v>
+        <v>95.0</v>
       </c>
       <c r="O91" s="3">
-        <v>95.0</v>
-      </c>
-      <c r="P91" s="3">
         <v>96.0</v>
       </c>
+      <c r="P91" s="5">
+        <v>121.0</v>
+      </c>
       <c r="Q91" s="5">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="R91" s="5">
-        <v>115.0</v>
+        <v>147.0</v>
       </c>
       <c r="S91" s="5">
-        <v>147.0</v>
+        <v>127.0</v>
       </c>
       <c r="T91" s="5">
-        <v>127.0</v>
-      </c>
-      <c r="U91" s="5">
         <v>106.0</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="3" t="s">
-        <v>91</v>
+      <c r="A92" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E92" s="3"/>
+      <c r="E92" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="F92" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H92" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J92" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I92" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="K92" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O92" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="P92" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="P92" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="Q92" s="5" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="R92" s="5" t="s">
         <v>58</v>
@@ -6096,166 +6116,163 @@
         <v>58</v>
       </c>
       <c r="T92" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="U92" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="3" t="s">
-        <v>91</v>
+      <c r="A93" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E93" s="3"/>
+      <c r="E93" s="3">
+        <v>3.7</v>
+      </c>
       <c r="F93" s="3">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="G93" s="3">
         <v>3.71</v>
       </c>
       <c r="H93" s="3">
-        <v>3.71</v>
+        <v>3.68</v>
       </c>
       <c r="I93" s="3">
         <v>3.68</v>
       </c>
-      <c r="J93" s="3">
+      <c r="J93" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K93" s="3">
+        <v>3.72</v>
+      </c>
+      <c r="L93" s="3">
+        <v>3.71</v>
+      </c>
+      <c r="M93" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="N93" s="3">
+        <v>3.79</v>
+      </c>
+      <c r="O93" s="3">
         <v>3.68</v>
       </c>
-      <c r="K93" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L93" s="3">
-        <v>3.72</v>
-      </c>
-      <c r="M93" s="3">
-        <v>3.71</v>
-      </c>
-      <c r="N93" s="3">
-        <v>3.74</v>
-      </c>
-      <c r="O93" s="3">
-        <v>3.79</v>
-      </c>
-      <c r="P93" s="3">
-        <v>3.68</v>
+      <c r="P93" s="5">
+        <v>3.64</v>
       </c>
       <c r="Q93" s="5">
-        <v>3.64</v>
+        <v>3.37</v>
       </c>
       <c r="R93" s="5">
-        <v>3.37</v>
+        <v>3.58</v>
       </c>
       <c r="S93" s="5">
-        <v>3.58</v>
+        <v>3.4</v>
       </c>
       <c r="T93" s="5">
-        <v>3.4</v>
-      </c>
-      <c r="U93" s="5">
         <v>3.21</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="3" t="s">
-        <v>91</v>
+      <c r="A94" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E94" s="3"/>
+      <c r="E94" s="3">
+        <v>155.0</v>
+      </c>
       <c r="F94" s="3">
-        <v>155.0</v>
+        <v>159.0</v>
       </c>
       <c r="G94" s="3">
-        <v>159.0</v>
+        <v>176.0</v>
       </c>
       <c r="H94" s="3">
-        <v>176.0</v>
+        <v>170.0</v>
       </c>
       <c r="I94" s="3">
-        <v>170.0</v>
+        <v>168.0</v>
       </c>
       <c r="J94" s="3">
+        <v>188.0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>189.0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>190.0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>221.0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>185.0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>186.0</v>
+      </c>
+      <c r="P94" s="5">
+        <v>180.0</v>
+      </c>
+      <c r="Q94" s="5">
+        <v>174.0</v>
+      </c>
+      <c r="R94" s="5">
+        <v>164.0</v>
+      </c>
+      <c r="S94" s="5">
         <v>168.0</v>
       </c>
-      <c r="K94" s="3">
-        <v>188.0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>189.0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>190.0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>221.0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>185.0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>186.0</v>
-      </c>
-      <c r="Q94" s="5">
-        <v>180.0</v>
-      </c>
-      <c r="R94" s="5">
-        <v>174.0</v>
-      </c>
-      <c r="S94" s="5">
-        <v>164.0</v>
-      </c>
       <c r="T94" s="5">
-        <v>168.0</v>
-      </c>
-      <c r="U94" s="5">
         <v>169.0</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="3" t="s">
-        <v>91</v>
+      <c r="A95" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E95" s="3"/>
+      <c r="E95" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="F95" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I95" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="J95" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>41</v>
@@ -6270,176 +6287,171 @@
         <v>41</v>
       </c>
       <c r="O95" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P95" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="P95" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="Q95" s="5" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="R95" s="5" t="s">
         <v>61</v>
       </c>
       <c r="S95" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="T95" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="U95" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="3" t="s">
-        <v>91</v>
+      <c r="A96" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E96" s="3"/>
+      <c r="E96" s="3">
+        <v>3.63</v>
+      </c>
       <c r="F96" s="3">
+        <v>3.57</v>
+      </c>
+      <c r="G96" s="3">
         <v>3.63</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
+        <v>3.54</v>
+      </c>
+      <c r="I96" s="3">
+        <v>3.51</v>
+      </c>
+      <c r="J96" s="3">
         <v>3.57</v>
       </c>
-      <c r="H96" s="3">
+      <c r="K96" s="3">
+        <v>3.61</v>
+      </c>
+      <c r="L96" s="3">
+        <v>3.69</v>
+      </c>
+      <c r="M96" s="3">
         <v>3.63</v>
       </c>
-      <c r="I96" s="3">
-        <v>3.54</v>
-      </c>
-      <c r="J96" s="3">
-        <v>3.51</v>
-      </c>
-      <c r="K96" s="3">
-        <v>3.57</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
+        <v>3.71</v>
+      </c>
+      <c r="O96" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="P96" s="5">
+        <v>3.68</v>
+      </c>
+      <c r="Q96" s="5">
         <v>3.61</v>
       </c>
-      <c r="M96" s="3">
-        <v>3.69</v>
-      </c>
-      <c r="N96" s="3">
-        <v>3.63</v>
-      </c>
-      <c r="O96" s="3">
-        <v>3.71</v>
-      </c>
-      <c r="P96" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="Q96" s="5">
-        <v>3.68</v>
-      </c>
       <c r="R96" s="5">
-        <v>3.61</v>
+        <v>3.55</v>
       </c>
       <c r="S96" s="5">
-        <v>3.55</v>
+        <v>3.52</v>
       </c>
       <c r="T96" s="5">
-        <v>3.52</v>
-      </c>
-      <c r="U96" s="5">
         <v>3.48</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="3" t="s">
-        <v>91</v>
+      <c r="A97" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E97" s="3"/>
+      <c r="E97" s="3">
+        <v>92.0</v>
+      </c>
       <c r="F97" s="3">
-        <v>92.0</v>
+        <v>112.0</v>
       </c>
       <c r="G97" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H97" s="3">
         <v>112.0</v>
       </c>
-      <c r="H97" s="3">
-        <v>100.0</v>
-      </c>
       <c r="I97" s="3">
-        <v>112.0</v>
+        <v>163.0</v>
       </c>
       <c r="J97" s="3">
-        <v>163.0</v>
+        <v>103.0</v>
       </c>
       <c r="K97" s="3">
-        <v>103.0</v>
+        <v>117.0</v>
       </c>
       <c r="L97" s="3">
+        <v>115.0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>147.0</v>
+      </c>
+      <c r="N97" s="3">
         <v>117.0</v>
       </c>
-      <c r="M97" s="3">
-        <v>115.0</v>
-      </c>
-      <c r="N97" s="3">
-        <v>147.0</v>
-      </c>
       <c r="O97" s="3">
-        <v>117.0</v>
-      </c>
-      <c r="P97" s="3">
         <v>134.0</v>
       </c>
+      <c r="P97" s="5">
+        <v>122.0</v>
+      </c>
       <c r="Q97" s="5">
-        <v>122.0</v>
+        <v>139.0</v>
       </c>
       <c r="R97" s="5">
-        <v>139.0</v>
+        <v>166.0</v>
       </c>
       <c r="S97" s="5">
-        <v>166.0</v>
+        <v>157.0</v>
       </c>
       <c r="T97" s="5">
-        <v>157.0</v>
-      </c>
-      <c r="U97" s="5">
         <v>78.0</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="3" t="s">
-        <v>91</v>
+      <c r="A98" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E98" s="3"/>
+      <c r="E98" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F98" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
@@ -6447,31 +6459,30 @@
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="3" t="s">
-        <v>91</v>
+      <c r="A99" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E99" s="3"/>
+      <c r="E99" s="3">
+        <v>3.79</v>
+      </c>
       <c r="F99" s="3">
-        <v>3.79</v>
-      </c>
-      <c r="G99" s="3">
         <v>3.76</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="G99" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
@@ -6479,31 +6490,30 @@
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="3" t="s">
-        <v>91</v>
+      <c r="A100" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E100" s="3"/>
+      <c r="E100" s="3">
+        <v>40.0</v>
+      </c>
       <c r="F100" s="3">
-        <v>40.0</v>
+        <v>33.0</v>
       </c>
       <c r="G100" s="3">
-        <v>33.0</v>
-      </c>
-      <c r="H100" s="3">
         <v>13.0</v>
       </c>
+      <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
@@ -6511,33 +6521,34 @@
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
-      <c r="P100" s="3"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="3" t="s">
-        <v>91</v>
+      <c r="A101" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E101" s="3"/>
+      <c r="E101" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="F101" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>40</v>
@@ -6546,86 +6557,85 @@
         <v>40</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N101" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O101" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O101" s="3" t="s">
+      <c r="P101" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q101" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q101" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="R101" s="5" t="s">
         <v>42</v>
       </c>
       <c r="S101" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T101" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="U101" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="3" t="s">
-        <v>91</v>
+      <c r="A102" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E102" s="3"/>
+      <c r="E102" s="3">
+        <v>3.35</v>
+      </c>
       <c r="F102" s="3">
+        <v>3.34</v>
+      </c>
+      <c r="G102" s="3">
         <v>3.35</v>
       </c>
-      <c r="G102" s="3">
-        <v>3.34</v>
-      </c>
       <c r="H102" s="3">
-        <v>3.35</v>
+        <v>3.24</v>
       </c>
       <c r="I102" s="3">
-        <v>3.24</v>
+        <v>3.39</v>
       </c>
       <c r="J102" s="3">
         <v>3.39</v>
       </c>
       <c r="K102" s="3">
-        <v>3.39</v>
+        <v>3.33</v>
       </c>
       <c r="L102" s="3">
-        <v>3.33</v>
+        <v>3.35</v>
       </c>
       <c r="M102" s="3">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="N102" s="3">
-        <v>3.32</v>
+        <v>3.34</v>
       </c>
       <c r="O102" s="3">
-        <v>3.34</v>
-      </c>
-      <c r="P102" s="3">
         <v>3.38</v>
       </c>
-      <c r="Q102" s="5">
+      <c r="P102" s="5">
         <v>3.4</v>
       </c>
+      <c r="Q102" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="R102" s="5" t="s">
         <v>26</v>
       </c>
@@ -6635,245 +6645,240 @@
       <c r="T102" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U102" s="5" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="3" t="s">
-        <v>91</v>
+      <c r="A103" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E103" s="3"/>
+      <c r="E103" s="3">
+        <v>69.0</v>
+      </c>
       <c r="F103" s="3">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="G103" s="3">
-        <v>97.0</v>
+        <v>102.0</v>
       </c>
       <c r="H103" s="3">
-        <v>102.0</v>
+        <v>109.0</v>
       </c>
       <c r="I103" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="J103" s="3">
         <v>109.0</v>
       </c>
-      <c r="J103" s="3">
-        <v>90.0</v>
-      </c>
       <c r="K103" s="3">
-        <v>109.0</v>
+        <v>99.0</v>
       </c>
       <c r="L103" s="3">
-        <v>99.0</v>
+        <v>123.0</v>
       </c>
       <c r="M103" s="3">
-        <v>123.0</v>
+        <v>104.0</v>
       </c>
       <c r="N103" s="3">
+        <v>89.0</v>
+      </c>
+      <c r="O103" s="3">
         <v>104.0</v>
       </c>
-      <c r="O103" s="3">
-        <v>89.0</v>
-      </c>
-      <c r="P103" s="3">
-        <v>104.0</v>
+      <c r="P103" s="5">
+        <v>80.0</v>
       </c>
       <c r="Q103" s="5">
-        <v>80.0</v>
+        <v>94.0</v>
       </c>
       <c r="R103" s="5">
-        <v>94.0</v>
+        <v>81.0</v>
       </c>
       <c r="S103" s="5">
-        <v>81.0</v>
+        <v>101.0</v>
       </c>
       <c r="T103" s="5">
-        <v>101.0</v>
-      </c>
-      <c r="U103" s="5">
         <v>100.0</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="3" t="s">
-        <v>91</v>
+      <c r="A104" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E104" s="3"/>
+      <c r="E104" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="F104" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G104" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J104" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H104" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="K104" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L104" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L104" s="3" t="s">
+      <c r="M104" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="M104" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="N104" s="3" t="s">
         <v>42</v>
       </c>
       <c r="O104" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P104" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Q104" s="5" t="s">
+      <c r="P104" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="3" t="s">
-        <v>91</v>
+      <c r="A105" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E105" s="3"/>
+      <c r="E105" s="3">
+        <v>3.39</v>
+      </c>
       <c r="F105" s="3">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="G105" s="3">
-        <v>3.35</v>
+        <v>3.47</v>
       </c>
       <c r="H105" s="3">
-        <v>3.47</v>
-      </c>
-      <c r="I105" s="3">
         <v>3.23</v>
       </c>
-      <c r="J105" s="3" t="s">
-        <v>26</v>
+      <c r="I105" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J105" s="3">
+        <v>3.49</v>
       </c>
       <c r="K105" s="3">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="L105" s="3">
-        <v>3.45</v>
+        <v>3.41</v>
       </c>
       <c r="M105" s="3">
-        <v>3.41</v>
-      </c>
-      <c r="N105" s="3">
         <v>3.38</v>
       </c>
+      <c r="N105" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="O105" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P105" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q105" s="5" t="s">
+      <c r="P105" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="3" t="s">
-        <v>91</v>
+      <c r="A106" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B106" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E106" s="3"/>
+      <c r="E106" s="3">
+        <v>80.0</v>
+      </c>
       <c r="F106" s="3">
-        <v>80.0</v>
+        <v>76.0</v>
       </c>
       <c r="G106" s="3">
-        <v>76.0</v>
+        <v>70.0</v>
       </c>
       <c r="H106" s="3">
-        <v>70.0</v>
+        <v>74.0</v>
       </c>
       <c r="I106" s="3">
-        <v>74.0</v>
+        <v>49.0</v>
       </c>
       <c r="J106" s="3">
-        <v>49.0</v>
+        <v>63.0</v>
       </c>
       <c r="K106" s="3">
-        <v>63.0</v>
+        <v>71.0</v>
       </c>
       <c r="L106" s="3">
-        <v>71.0</v>
+        <v>66.0</v>
       </c>
       <c r="M106" s="3">
-        <v>66.0</v>
+        <v>55.0</v>
       </c>
       <c r="N106" s="3">
         <v>55.0</v>
       </c>
       <c r="O106" s="3">
-        <v>55.0</v>
-      </c>
-      <c r="P106" s="3">
         <v>83.0</v>
       </c>
-      <c r="Q106" s="5">
+      <c r="P106" s="5">
         <v>68.0</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="3" t="s">
-        <v>91</v>
+      <c r="A107" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E107" s="3"/>
+      <c r="E107" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="F107" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>42</v>
@@ -6882,87 +6887,86 @@
         <v>42</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L107" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M107" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M107" s="3" t="s">
+      <c r="N107" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="N107" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="O107" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P107" s="3" t="s">
+      <c r="P107" s="5" t="s">
         <v>40</v>
       </c>
       <c r="Q107" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R107" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R107" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="S107" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="T107" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="U107" s="5" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="3" t="s">
-        <v>91</v>
+      <c r="A108" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E108" s="3"/>
+      <c r="E108" s="3">
+        <v>3.45</v>
+      </c>
       <c r="F108" s="3">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G108" s="3">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="H108" s="3">
-        <v>3.46</v>
+        <v>3.23</v>
       </c>
       <c r="I108" s="3">
-        <v>3.23</v>
+        <v>3.38</v>
       </c>
       <c r="J108" s="3">
-        <v>3.38</v>
+        <v>3.52</v>
       </c>
       <c r="K108" s="3">
-        <v>3.52</v>
+        <v>3.53</v>
       </c>
       <c r="L108" s="3">
         <v>3.53</v>
       </c>
       <c r="M108" s="3">
-        <v>3.53</v>
+        <v>3.44</v>
       </c>
       <c r="N108" s="3">
-        <v>3.44</v>
-      </c>
-      <c r="O108" s="3">
         <v>3.49</v>
       </c>
-      <c r="P108" s="3" t="s">
+      <c r="O108" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P108" s="5" t="s">
         <v>26</v>
       </c>
       <c r="Q108" s="5" t="s">
@@ -6977,101 +6981,99 @@
       <c r="T108" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U108" s="5" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="3" t="s">
-        <v>91</v>
+      <c r="A109" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E109" s="3"/>
+      <c r="E109" s="3">
+        <v>63.0</v>
+      </c>
       <c r="F109" s="3">
-        <v>63.0</v>
+        <v>70.0</v>
       </c>
       <c r="G109" s="3">
-        <v>70.0</v>
+        <v>92.0</v>
       </c>
       <c r="H109" s="3">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="I109" s="3">
-        <v>89.0</v>
+        <v>82.0</v>
       </c>
       <c r="J109" s="3">
-        <v>82.0</v>
+        <v>80.0</v>
       </c>
       <c r="K109" s="3">
-        <v>80.0</v>
+        <v>79.0</v>
       </c>
       <c r="L109" s="3">
         <v>79.0</v>
       </c>
       <c r="M109" s="3">
-        <v>79.0</v>
+        <v>104.0</v>
       </c>
       <c r="N109" s="3">
-        <v>104.0</v>
+        <v>74.0</v>
       </c>
       <c r="O109" s="3">
-        <v>74.0</v>
-      </c>
-      <c r="P109" s="3">
         <v>63.0</v>
       </c>
+      <c r="P109" s="5">
+        <v>66.0</v>
+      </c>
       <c r="Q109" s="5">
-        <v>66.0</v>
+        <v>61.0</v>
       </c>
       <c r="R109" s="5">
-        <v>61.0</v>
+        <v>68.0</v>
       </c>
       <c r="S109" s="5">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="T109" s="5">
-        <v>69.0</v>
-      </c>
-      <c r="U109" s="5">
         <v>52.0</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="3" t="s">
-        <v>91</v>
+      <c r="A110" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E110" s="3"/>
+      <c r="E110" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="F110" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H110" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I110" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I110" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="J110" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>42</v>
@@ -7083,316 +7085,310 @@
         <v>42</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O110" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P110" s="3"/>
+      <c r="O110" s="3"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="3" t="s">
-        <v>91</v>
+      <c r="A111" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E111" s="3"/>
+      <c r="E111" s="3">
+        <v>3.43</v>
+      </c>
       <c r="F111" s="3">
-        <v>3.43</v>
+        <v>3.5</v>
       </c>
       <c r="G111" s="3">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H111" s="3">
-        <v>3.55</v>
+        <v>3.47</v>
       </c>
       <c r="I111" s="3">
-        <v>3.47</v>
-      </c>
-      <c r="J111" s="3">
         <v>3.31</v>
       </c>
+      <c r="J111" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="K111" s="3" t="s">
         <v>26</v>
       </c>
       <c r="L111" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M111" s="3" t="s">
-        <v>26</v>
+      <c r="M111" s="3">
+        <v>3.48</v>
       </c>
       <c r="N111" s="3">
         <v>3.48</v>
       </c>
-      <c r="O111" s="3">
-        <v>3.48</v>
-      </c>
-      <c r="P111" s="3"/>
+      <c r="O111" s="3"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="3" t="s">
-        <v>91</v>
+      <c r="A112" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E112" s="3"/>
+      <c r="E112" s="3">
+        <v>28.0</v>
+      </c>
       <c r="F112" s="3">
-        <v>28.0</v>
+        <v>39.0</v>
       </c>
       <c r="G112" s="3">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="H112" s="3">
-        <v>41.0</v>
+        <v>47.0</v>
       </c>
       <c r="I112" s="3">
-        <v>47.0</v>
+        <v>59.0</v>
       </c>
       <c r="J112" s="3">
-        <v>59.0</v>
+        <v>35.0</v>
       </c>
       <c r="K112" s="3">
-        <v>35.0</v>
+        <v>43.0</v>
       </c>
       <c r="L112" s="3">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="M112" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="N112" s="3">
         <v>42.0</v>
       </c>
-      <c r="N112" s="3">
-        <v>38.0</v>
-      </c>
-      <c r="O112" s="3">
-        <v>42.0</v>
-      </c>
-      <c r="P112" s="3"/>
+      <c r="O112" s="3"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="3" t="s">
-        <v>91</v>
+      <c r="A113" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E113" s="3"/>
+      <c r="E113" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F113" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I113" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J113" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="K113" s="3" t="s">
         <v>48</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N113" s="3" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="O113" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P113" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="P113" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="Q113" s="5" t="s">
         <v>61</v>
       </c>
       <c r="R113" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S113" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T113" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T113" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="U113" s="5" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="3" t="s">
-        <v>91</v>
+      <c r="A114" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E114" s="3"/>
+      <c r="E114" s="3">
+        <v>3.75</v>
+      </c>
       <c r="F114" s="3">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="G114" s="3">
-        <v>3.73</v>
+        <v>3.72</v>
       </c>
       <c r="H114" s="3">
-        <v>3.72</v>
+        <v>3.52</v>
       </c>
       <c r="I114" s="3">
-        <v>3.52</v>
+        <v>3.67</v>
       </c>
       <c r="J114" s="3">
+        <v>3.68</v>
+      </c>
+      <c r="K114" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="L114" s="3">
+        <v>3.69</v>
+      </c>
+      <c r="M114" s="3">
+        <v>3.71</v>
+      </c>
+      <c r="N114" s="3">
+        <v>3.81</v>
+      </c>
+      <c r="O114" s="3">
+        <v>3.69</v>
+      </c>
+      <c r="P114" s="5">
+        <v>3.63</v>
+      </c>
+      <c r="Q114" s="5">
         <v>3.67</v>
       </c>
-      <c r="K114" s="3">
-        <v>3.68</v>
-      </c>
-      <c r="L114" s="3">
-        <v>3.74</v>
-      </c>
-      <c r="M114" s="3">
+      <c r="R114" s="5">
         <v>3.69</v>
       </c>
-      <c r="N114" s="3">
-        <v>3.71</v>
-      </c>
-      <c r="O114" s="3">
-        <v>3.81</v>
-      </c>
-      <c r="P114" s="3">
-        <v>3.69</v>
-      </c>
-      <c r="Q114" s="5">
-        <v>3.63</v>
-      </c>
-      <c r="R114" s="5">
-        <v>3.67</v>
-      </c>
       <c r="S114" s="5">
-        <v>3.69</v>
+        <v>3.32</v>
       </c>
       <c r="T114" s="5">
-        <v>3.32</v>
-      </c>
-      <c r="U114" s="5">
         <v>3.49</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="3" t="s">
-        <v>91</v>
+      <c r="A115" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E115" s="3"/>
+      <c r="E115" s="3">
+        <v>137.0</v>
+      </c>
       <c r="F115" s="3">
-        <v>137.0</v>
+        <v>113.0</v>
       </c>
       <c r="G115" s="3">
-        <v>113.0</v>
+        <v>147.0</v>
       </c>
       <c r="H115" s="3">
-        <v>147.0</v>
+        <v>134.0</v>
       </c>
       <c r="I115" s="3">
         <v>134.0</v>
       </c>
       <c r="J115" s="3">
-        <v>134.0</v>
+        <v>117.0</v>
       </c>
       <c r="K115" s="3">
-        <v>117.0</v>
+        <v>111.0</v>
       </c>
       <c r="L115" s="3">
-        <v>111.0</v>
+        <v>127.0</v>
       </c>
       <c r="M115" s="3">
-        <v>127.0</v>
+        <v>133.0</v>
       </c>
       <c r="N115" s="3">
-        <v>133.0</v>
+        <v>119.0</v>
       </c>
       <c r="O115" s="3">
-        <v>119.0</v>
-      </c>
-      <c r="P115" s="3">
         <v>178.0</v>
       </c>
+      <c r="P115" s="5">
+        <v>102.0</v>
+      </c>
       <c r="Q115" s="5">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
       <c r="R115" s="5">
-        <v>113.0</v>
+        <v>73.0</v>
       </c>
       <c r="S115" s="5">
-        <v>73.0</v>
+        <v>124.0</v>
       </c>
       <c r="T115" s="5">
-        <v>124.0</v>
-      </c>
-      <c r="U115" s="5">
         <v>77.0</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="3" t="s">
-        <v>91</v>
+      <c r="A116" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E116" s="3"/>
+      <c r="E116" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F116" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>41</v>
@@ -7401,142 +7397,139 @@
         <v>41</v>
       </c>
       <c r="K116" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M116" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="L116" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M116" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="N116" s="3" t="s">
         <v>41</v>
       </c>
       <c r="O116" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P116" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="3" t="s">
-        <v>91</v>
+      <c r="A117" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E117" s="3"/>
+      <c r="E117" s="3">
+        <v>3.62</v>
+      </c>
       <c r="F117" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="G117" s="3">
+        <v>3.64</v>
+      </c>
+      <c r="H117" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I117" s="3">
+        <v>3.56</v>
+      </c>
+      <c r="J117" s="3">
+        <v>3.67</v>
+      </c>
+      <c r="K117" s="3">
+        <v>3.63</v>
+      </c>
+      <c r="L117" s="3">
+        <v>3.64</v>
+      </c>
+      <c r="M117" s="3">
         <v>3.62</v>
       </c>
-      <c r="G117" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="H117" s="3">
-        <v>3.64</v>
-      </c>
-      <c r="I117" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="J117" s="3">
-        <v>3.56</v>
-      </c>
-      <c r="K117" s="3">
-        <v>3.67</v>
-      </c>
-      <c r="L117" s="3">
+      <c r="N117" s="3">
         <v>3.63</v>
       </c>
-      <c r="M117" s="3">
-        <v>3.64</v>
-      </c>
-      <c r="N117" s="3">
-        <v>3.62</v>
-      </c>
       <c r="O117" s="3">
-        <v>3.63</v>
-      </c>
-      <c r="P117" s="3">
         <v>3.46</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="3" t="s">
-        <v>91</v>
+      <c r="A118" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E118" s="3"/>
+      <c r="E118" s="3">
+        <v>41.0</v>
+      </c>
       <c r="F118" s="3">
-        <v>41.0</v>
+        <v>47.0</v>
       </c>
       <c r="G118" s="3">
-        <v>47.0</v>
+        <v>45.0</v>
       </c>
       <c r="H118" s="3">
-        <v>45.0</v>
+        <v>52.0</v>
       </c>
       <c r="I118" s="3">
+        <v>65.0</v>
+      </c>
+      <c r="J118" s="3">
+        <v>59.0</v>
+      </c>
+      <c r="K118" s="3">
+        <v>65.0</v>
+      </c>
+      <c r="L118" s="3">
         <v>52.0</v>
       </c>
-      <c r="J118" s="3">
-        <v>65.0</v>
-      </c>
-      <c r="K118" s="3">
-        <v>59.0</v>
-      </c>
-      <c r="L118" s="3">
-        <v>65.0</v>
-      </c>
       <c r="M118" s="3">
-        <v>52.0</v>
+        <v>60.0</v>
       </c>
       <c r="N118" s="3">
-        <v>60.0</v>
+        <v>42.0</v>
       </c>
       <c r="O118" s="3">
-        <v>42.0</v>
-      </c>
-      <c r="P118" s="3">
         <v>78.0</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="3" t="s">
-        <v>91</v>
+      <c r="A119" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E119" s="3"/>
+      <c r="E119" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="F119" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G119" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H119" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>40</v>
@@ -7545,242 +7538,238 @@
         <v>40</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L119" s="3" t="s">
         <v>45</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N119" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O119" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P119" s="3" t="s">
-        <v>40</v>
+      <c r="P119" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="Q119" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R119" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S119" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T119" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R119" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="S119" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="T119" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="U119" s="5" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="3" t="s">
-        <v>91</v>
+      <c r="A120" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E120" s="3"/>
+      <c r="E120" s="3">
+        <v>3.59</v>
+      </c>
       <c r="F120" s="3">
-        <v>3.59</v>
+        <v>3.61</v>
       </c>
       <c r="G120" s="3">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="H120" s="3">
-        <v>3.62</v>
+        <v>3.56</v>
       </c>
       <c r="I120" s="3">
+        <v>3.47</v>
+      </c>
+      <c r="J120" s="3">
         <v>3.56</v>
       </c>
-      <c r="J120" s="3">
+      <c r="K120" s="3">
+        <v>3.58</v>
+      </c>
+      <c r="L120" s="3">
+        <v>3.64</v>
+      </c>
+      <c r="M120" s="3">
+        <v>3.58</v>
+      </c>
+      <c r="N120" s="3">
         <v>3.47</v>
       </c>
-      <c r="K120" s="3">
-        <v>3.56</v>
-      </c>
-      <c r="L120" s="3">
+      <c r="O120" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="P120" s="5">
         <v>3.58</v>
       </c>
-      <c r="M120" s="3">
-        <v>3.64</v>
-      </c>
-      <c r="N120" s="3">
-        <v>3.58</v>
-      </c>
-      <c r="O120" s="3">
-        <v>3.47</v>
-      </c>
-      <c r="P120" s="3">
+      <c r="Q120" s="5">
+        <v>3.49</v>
+      </c>
+      <c r="R120" s="5">
         <v>3.5</v>
       </c>
-      <c r="Q120" s="5">
-        <v>3.58</v>
-      </c>
-      <c r="R120" s="5">
-        <v>3.49</v>
-      </c>
       <c r="S120" s="5">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="T120" s="5">
-        <v>3.33</v>
-      </c>
-      <c r="U120" s="5">
         <v>3.39</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="3" t="s">
-        <v>91</v>
+      <c r="A121" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E121" s="3"/>
+      <c r="E121" s="3">
+        <v>86.0</v>
+      </c>
       <c r="F121" s="3">
+        <v>99.0</v>
+      </c>
+      <c r="G121" s="3">
+        <v>88.0</v>
+      </c>
+      <c r="H121" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="I121" s="3">
+        <v>139.0</v>
+      </c>
+      <c r="J121" s="3">
+        <v>116.0</v>
+      </c>
+      <c r="K121" s="3">
+        <v>98.0</v>
+      </c>
+      <c r="L121" s="3">
         <v>86.0</v>
       </c>
-      <c r="G121" s="3">
-        <v>99.0</v>
-      </c>
-      <c r="H121" s="3">
-        <v>88.0</v>
-      </c>
-      <c r="I121" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="J121" s="3">
+      <c r="M121" s="3">
+        <v>170.0</v>
+      </c>
+      <c r="N121" s="3">
+        <v>128.0</v>
+      </c>
+      <c r="O121" s="3">
         <v>139.0</v>
       </c>
-      <c r="K121" s="3">
-        <v>116.0</v>
-      </c>
-      <c r="L121" s="3">
+      <c r="P121" s="5">
+        <v>103.0</v>
+      </c>
+      <c r="Q121" s="5">
         <v>98.0</v>
       </c>
-      <c r="M121" s="3">
-        <v>86.0</v>
-      </c>
-      <c r="N121" s="3">
-        <v>170.0</v>
-      </c>
-      <c r="O121" s="3">
-        <v>128.0</v>
-      </c>
-      <c r="P121" s="3">
-        <v>139.0</v>
-      </c>
-      <c r="Q121" s="5">
-        <v>103.0</v>
-      </c>
       <c r="R121" s="5">
-        <v>98.0</v>
+        <v>76.0</v>
       </c>
       <c r="S121" s="5">
-        <v>76.0</v>
+        <v>201.0</v>
       </c>
       <c r="T121" s="5">
-        <v>201.0</v>
-      </c>
-      <c r="U121" s="5">
         <v>63.0</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="C122" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E122" s="3"/>
+      <c r="E122" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="F122" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H122" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J122" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I122" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="K122" s="3" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="N122" s="3" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="O122" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="P122" s="3" t="s">
-        <v>122</v>
+      <c r="P122" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="Q122" s="5" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="R122" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S122" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T122" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="U122" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="C123" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E123" s="3"/>
+      <c r="E123" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F123" s="3" t="s">
         <v>26</v>
       </c>
@@ -7799,116 +7788,114 @@
       <c r="K123" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L123" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M123" s="3">
+      <c r="L123" s="3">
         <v>3.59</v>
       </c>
+      <c r="M123" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="N123" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O123" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="P123" s="3">
+        <v>120</v>
+      </c>
+      <c r="O123" s="3">
         <v>3.48</v>
       </c>
-      <c r="Q123" s="5">
+      <c r="P123" s="5">
         <v>3.21</v>
       </c>
+      <c r="Q123" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="R123" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S123" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T123" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="U123" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="C124" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E124" s="3"/>
+      <c r="E124" s="3">
+        <v>42.0</v>
+      </c>
       <c r="F124" s="3">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
       <c r="G124" s="3">
-        <v>39.0</v>
+        <v>33.0</v>
       </c>
       <c r="H124" s="3">
+        <v>41.0</v>
+      </c>
+      <c r="I124" s="3">
+        <v>28.0</v>
+      </c>
+      <c r="J124" s="3">
         <v>33.0</v>
       </c>
-      <c r="I124" s="3">
+      <c r="K124" s="3">
         <v>41.0</v>
       </c>
-      <c r="J124" s="3">
-        <v>28.0</v>
-      </c>
-      <c r="K124" s="3">
+      <c r="L124" s="3">
         <v>33.0</v>
       </c>
-      <c r="L124" s="3">
-        <v>41.0</v>
-      </c>
       <c r="M124" s="3">
-        <v>33.0</v>
-      </c>
-      <c r="N124" s="3">
         <v>36.0</v>
       </c>
-      <c r="O124" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="P124" s="3">
+      <c r="N124" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O124" s="3">
         <v>86.0</v>
       </c>
-      <c r="Q124" s="5">
+      <c r="P124" s="5">
         <v>125.0</v>
       </c>
+      <c r="Q124" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="R124" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S124" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T124" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="U124" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="3" t="s">
-        <v>118</v>
+      <c r="A125" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E125" s="3"/>
+      <c r="E125" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="F125" s="3" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>33</v>
@@ -7917,13 +7904,13 @@
         <v>33</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="L125" s="3" t="s">
         <v>48</v>
@@ -7932,44 +7919,43 @@
         <v>48</v>
       </c>
       <c r="N125" s="3" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="O125" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="P125" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="P125" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="Q125" s="5" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="R125" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S125" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T125" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="U125" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="3" t="s">
-        <v>118</v>
+      <c r="A126" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F126" s="3" t="s">
         <v>26</v>
       </c>
@@ -7988,114 +7974,112 @@
       <c r="K126" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L126" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M126" s="3">
+      <c r="L126" s="3">
         <v>3.78</v>
       </c>
+      <c r="M126" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="N126" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O126" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="P126" s="3">
+        <v>120</v>
+      </c>
+      <c r="O126" s="3">
         <v>3.37</v>
       </c>
-      <c r="Q126" s="5">
+      <c r="P126" s="5">
         <v>3.3</v>
       </c>
+      <c r="Q126" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="R126" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S126" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T126" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="U126" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="3" t="s">
-        <v>118</v>
+      <c r="A127" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="B127" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E127" s="3"/>
+      <c r="E127" s="3">
+        <v>22.0</v>
+      </c>
       <c r="F127" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="G127" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="H127" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="I127" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="J127" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="K127" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="L127" s="3">
+        <v>39.0</v>
+      </c>
+      <c r="M127" s="3">
         <v>22.0</v>
       </c>
-      <c r="G127" s="3">
-        <v>24.0</v>
-      </c>
-      <c r="H127" s="3">
-        <v>32.0</v>
-      </c>
-      <c r="I127" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="J127" s="3">
-        <v>29.0</v>
-      </c>
-      <c r="K127" s="3">
-        <v>37.0</v>
-      </c>
-      <c r="L127" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="M127" s="3">
-        <v>39.0</v>
-      </c>
-      <c r="N127" s="3">
-        <v>22.0</v>
-      </c>
-      <c r="O127" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="P127" s="3">
+      <c r="N127" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O127" s="3">
         <v>34.0</v>
       </c>
-      <c r="Q127" s="5">
+      <c r="P127" s="5">
         <v>72.0</v>
       </c>
+      <c r="Q127" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="R127" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S127" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T127" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="U127" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="3" t="s">
-        <v>118</v>
+      <c r="A128" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E128" s="3"/>
+      <c r="E128" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F128" s="3" t="s">
         <v>39</v>
       </c>
@@ -8103,133 +8087,131 @@
         <v>39</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L128" s="3" t="s">
         <v>45</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N128" s="3" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="O128" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P128" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="P128" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="Q128" s="5" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="R128" s="5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="S128" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T128" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="3" t="s">
-        <v>118</v>
+      <c r="A129" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E129" s="3"/>
+      <c r="E129" s="3">
+        <v>3.43</v>
+      </c>
       <c r="F129" s="3">
-        <v>3.43</v>
+        <v>3.54</v>
       </c>
       <c r="G129" s="3">
+        <v>3.55</v>
+      </c>
+      <c r="H129" s="3">
+        <v>3.64</v>
+      </c>
+      <c r="I129" s="3">
         <v>3.54</v>
       </c>
-      <c r="H129" s="3">
-        <v>3.55</v>
-      </c>
-      <c r="I129" s="3">
+      <c r="J129" s="3">
+        <v>3.58</v>
+      </c>
+      <c r="K129" s="3">
+        <v>3.67</v>
+      </c>
+      <c r="L129" s="3">
+        <v>3.61</v>
+      </c>
+      <c r="M129" s="3">
         <v>3.64</v>
       </c>
-      <c r="J129" s="3">
-        <v>3.54</v>
-      </c>
-      <c r="K129" s="3">
+      <c r="N129" s="3">
+        <v>3.68</v>
+      </c>
+      <c r="O129" s="3">
         <v>3.58</v>
       </c>
-      <c r="L129" s="3">
-        <v>3.67</v>
-      </c>
-      <c r="M129" s="3">
-        <v>3.61</v>
-      </c>
-      <c r="N129" s="3">
-        <v>3.64</v>
-      </c>
-      <c r="O129" s="3">
-        <v>3.68</v>
-      </c>
-      <c r="P129" s="3">
-        <v>3.58</v>
-      </c>
-      <c r="Q129" s="5">
+      <c r="P129" s="5">
         <v>3.46</v>
       </c>
-      <c r="R129" s="5" t="s">
-        <v>26</v>
+      <c r="Q129" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R129" s="5">
+        <v>3.53</v>
       </c>
       <c r="S129" s="5">
-        <v>3.53</v>
-      </c>
-      <c r="T129" s="5">
         <v>3.41</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="3" t="s">
-        <v>118</v>
+      <c r="A130" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E130" s="3"/>
+      <c r="E130" s="3">
+        <v>69.0</v>
+      </c>
       <c r="F130" s="3">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="G130" s="3">
-        <v>70.0</v>
+        <v>74.0</v>
       </c>
       <c r="H130" s="3">
+        <v>78.0</v>
+      </c>
+      <c r="I130" s="3">
         <v>74.0</v>
       </c>
-      <c r="I130" s="3">
-        <v>78.0</v>
-      </c>
       <c r="J130" s="3">
-        <v>74.0</v>
+        <v>77.0</v>
       </c>
       <c r="K130" s="3">
         <v>77.0</v>
@@ -8238,27 +8220,24 @@
         <v>77.0</v>
       </c>
       <c r="M130" s="3">
-        <v>77.0</v>
+        <v>75.0</v>
       </c>
       <c r="N130" s="3">
         <v>75.0</v>
       </c>
       <c r="O130" s="3">
-        <v>75.0</v>
-      </c>
-      <c r="P130" s="3">
         <v>90.0</v>
       </c>
+      <c r="P130" s="5">
+        <v>74.0</v>
+      </c>
       <c r="Q130" s="5">
-        <v>74.0</v>
+        <v>72.0</v>
       </c>
       <c r="R130" s="5">
-        <v>72.0</v>
+        <v>48.0</v>
       </c>
       <c r="S130" s="5">
-        <v>48.0</v>
-      </c>
-      <c r="T130" s="5">
         <v>35.0</v>
       </c>
     </row>
@@ -9133,8 +9112,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="$A$1:$T$130"/>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:E130">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D130">
       <formula1>"Places,RP,GPA"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9157,36 +9137,44 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
     <row r="9" ht="15.75" customHeight="1"/>
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1"/>
